--- a/returnPct/returnsStocks.xlsx
+++ b/returnPct/returnsStocks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>return%</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sectors</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -465,10 +470,15 @@
         <v>101.5699996948242</v>
       </c>
       <c r="C2" t="n">
-        <v>424.0499877929688</v>
+        <v>416</v>
       </c>
       <c r="D2" t="n">
-        <v>317.4953126583276</v>
+        <v>309.5697560794602</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>^ENGINEERING</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -481,746 +491,981 @@
         <v>332.6000061035156</v>
       </c>
       <c r="C3" t="n">
-        <v>695.9000244140625</v>
+        <v>682.2999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>109.2303101754834</v>
+        <v>105.1413034492295</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>^ELECTRIC2AND3WHEELERS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELITECON.BO</t>
+          <t>CARTRADE.NS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.17980575561523</v>
+        <v>1603.199951171875</v>
       </c>
       <c r="C4" t="n">
-        <v>104.5500030517578</v>
+        <v>3095.199951171875</v>
       </c>
       <c r="D4" t="n">
-        <v>73.72937938072774</v>
+        <v>93.06387508990427</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABDL.NS</t>
+          <t>NETWEB.NS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425</v>
+        <v>1807.310180664062</v>
       </c>
       <c r="C5" t="n">
-        <v>650.75</v>
+        <v>3211</v>
       </c>
       <c r="D5" t="n">
-        <v>53.11764705882352</v>
+        <v>77.66734423087119</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN.NS</t>
+          <t>LTF.NS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2570.699951171875</v>
+        <v>203.0200042724609</v>
       </c>
       <c r="C6" t="n">
-        <v>3636</v>
+        <v>302.7999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>41.44007737435476</v>
+        <v>49.14785805373105</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HEROMOTOCO.NS</t>
+          <t>SILLYMONKS.NS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4255.9462890625</v>
+        <v>15.88000011444092</v>
       </c>
       <c r="C7" t="n">
-        <v>6002.5</v>
+        <v>23.39999961853027</v>
       </c>
       <c r="D7" t="n">
-        <v>41.03796411684112</v>
+        <v>47.35516026382668</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LAURUSLABS.NS</t>
+          <t>MUTHOOTFIN.NS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>701.2213745117188</v>
+        <v>2570.699951171875</v>
       </c>
       <c r="C8" t="n">
-        <v>978.2000122070312</v>
+        <v>3763.39990234375</v>
       </c>
       <c r="D8" t="n">
-        <v>39.49945734158217</v>
+        <v>46.39592227121538</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>^GOLDFINANCE, ^MOTORFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TI.NS</t>
+          <t>HEROMOTOCO.NS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348.9440002441406</v>
+        <v>4255.9462890625</v>
       </c>
       <c r="C9" t="n">
-        <v>485.7999877929688</v>
+        <v>6211.5</v>
       </c>
       <c r="D9" t="n">
-        <v>39.22004317399814</v>
+        <v>45.94874037680277</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APEX.NS</t>
+          <t>PAYTM.NS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.0349884033203</v>
+        <v>919.3499755859375</v>
       </c>
       <c r="C10" t="n">
-        <v>331.75</v>
+        <v>1338.900024414062</v>
       </c>
       <c r="D10" t="n">
-        <v>37.63561970716367</v>
+        <v>45.63550986779865</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDIANB.NS</t>
+          <t>ABDL.NS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>626.7999877929688</v>
+        <v>425</v>
       </c>
       <c r="C11" t="n">
-        <v>851.7999877929688</v>
+        <v>616.75</v>
       </c>
       <c r="D11" t="n">
-        <v>35.89661843999863</v>
+        <v>45.11764705882353</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>^DAARU, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CANBK.NS</t>
+          <t>LAURUSLABS.NS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.9800033569336</v>
+        <v>701.2213745117188</v>
       </c>
       <c r="C12" t="n">
-        <v>145.7700042724609</v>
+        <v>1016.5</v>
       </c>
       <c r="D12" t="n">
-        <v>31.3479905056732</v>
+        <v>44.96135413838734</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CUMMINSIND.NS</t>
+          <t>NATIONALUM.NS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3306.013916015625</v>
+        <v>185.7906951904297</v>
       </c>
       <c r="C13" t="n">
-        <v>4333.7998046875</v>
+        <v>266.5</v>
       </c>
       <c r="D13" t="n">
-        <v>31.0883715187307</v>
+        <v>43.44098326713605</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M&amp;MFIN.NS</t>
+          <t>ELITECON.BO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>266.1384887695312</v>
+        <v>60.17980575561523</v>
       </c>
       <c r="C14" t="n">
-        <v>342.5499877929688</v>
+        <v>86.15000152587891</v>
       </c>
       <c r="D14" t="n">
-        <v>28.71117942268312</v>
+        <v>43.1543363162824</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>^SUTTA</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NYKAA.NS</t>
+          <t>SYRMA.NS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>209.8600006103516</v>
+        <v>555.9209594726562</v>
       </c>
       <c r="C15" t="n">
-        <v>268.5199890136719</v>
+        <v>795.3499755859375</v>
       </c>
       <c r="D15" t="n">
-        <v>27.95196237144528</v>
+        <v>43.0688953228895</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>^EMS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MARUTI.NS</t>
+          <t>IDEA.NS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12506.6357421875</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C16" t="n">
-        <v>15977</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="D16" t="n">
-        <v>27.74818367905475</v>
+        <v>42.95392990700642</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EICHERMOT.NS</t>
+          <t>SABTNL.NS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5587.548828125</v>
+        <v>917.8499755859375</v>
       </c>
       <c r="C17" t="n">
-        <v>7134.5</v>
+        <v>1301.300048828125</v>
       </c>
       <c r="D17" t="n">
-        <v>27.6856850733617</v>
+        <v>41.77698790016315</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADANIPOWER.NS</t>
+          <t>ANANDRATHI.NS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.870002746582</v>
+        <v>2072.185546875</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1199951171875</v>
+        <v>2909</v>
       </c>
       <c r="D18" t="n">
-        <v>27.59475623572589</v>
+        <v>40.38318163095841</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI, EMULTIMQ.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RADICO.NS</t>
+          <t>RAMCOSYS.NS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2585.051025390625</v>
+        <v>412.6499938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>3273.10009765625</v>
+        <v>571.4500122070312</v>
       </c>
       <c r="D19" t="n">
-        <v>26.61646000436895</v>
+        <v>38.48298089406558</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BANKINDIA.NS</t>
+          <t>SAMBHAAV.NS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.7699966430664</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="C20" t="n">
-        <v>145.4600067138672</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="D20" t="n">
-        <v>24.5696761973011</v>
+        <v>38.22284879863941</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GVT&amp;D.NS</t>
+          <t>CUMMINSIND.NS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2331.5283203125</v>
+        <v>3306.013916015625</v>
       </c>
       <c r="C21" t="n">
-        <v>2902</v>
+        <v>4514.10009765625</v>
       </c>
       <c r="D21" t="n">
-        <v>24.46771393328126</v>
+        <v>36.54207793222475</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^CNXMNC, HDFCBANK.NS, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GMRAIRPORT.NS</t>
+          <t>M&amp;MFIN.NS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.76000213623047</v>
+        <v>266.1384887695312</v>
       </c>
       <c r="C22" t="n">
-        <v>104.0500030517578</v>
+        <v>355.5</v>
       </c>
       <c r="D22" t="n">
-        <v>22.75837709928735</v>
+        <v>33.57707171316112</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>^MOTORFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, M%26M.NS, HDFCBANK.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ASIANPAINT.NS</t>
+          <t>TI.NS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2355.0244140625</v>
+        <v>348.9440002441406</v>
       </c>
       <c r="C23" t="n">
-        <v>2876.60009765625</v>
+        <v>461.0499877929688</v>
       </c>
       <c r="D23" t="n">
-        <v>22.14735781418137</v>
+        <v>32.12721453023767</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>^DAARU, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AVANTIFEED.NS</t>
+          <t>CANBK.NS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709.4659423828125</v>
+        <v>110.9800033569336</v>
       </c>
       <c r="C24" t="n">
-        <v>861.2000122070312</v>
+        <v>146.0800018310547</v>
       </c>
       <c r="D24" t="n">
-        <v>21.38708298168685</v>
+        <v>31.62731790630117</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^NSEBANK, ^CNXPSUBANK, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SBIN.NS</t>
+          <t>ASHOKLEY.NS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>805.4000244140625</v>
+        <v>124.0238723754883</v>
       </c>
       <c r="C25" t="n">
-        <v>972.5999755859375</v>
+        <v>162.7100067138672</v>
       </c>
       <c r="D25" t="n">
-        <v>20.75986417973042</v>
+        <v>31.19249028223757</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COASTCORP.NS</t>
+          <t>ABCAPITAL.NS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38.06977081298828</v>
+        <v>269.3299865722656</v>
       </c>
       <c r="C26" t="n">
-        <v>45.93999862670898</v>
+        <v>350</v>
       </c>
       <c r="D26" t="n">
-        <v>20.67316835812317</v>
+        <v>29.95210984651696</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ALPHAETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN.NS</t>
+          <t>INDIANB.NS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>692.6035766601562</v>
+        <v>626.7999877929688</v>
       </c>
       <c r="C27" t="n">
-        <v>823.2999877929688</v>
+        <v>812.7999877929688</v>
       </c>
       <c r="D27" t="n">
-        <v>18.8703055452083</v>
+        <v>29.67453791039887</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, HDFCBANK.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FEDERALBNK.NS</t>
+          <t>PFOCUS.NS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>207.1360931396484</v>
+        <v>136.8300018310547</v>
       </c>
       <c r="C28" t="n">
-        <v>245.0599975585938</v>
+        <v>176.1799926757812</v>
       </c>
       <c r="D28" t="n">
-        <v>18.30868963690336</v>
+        <v>28.75830615957484</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>^CNXMEDIA, NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M&amp;M.NS</t>
+          <t>MARUTI.NS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3177.76953125</v>
+        <v>12506.6357421875</v>
       </c>
       <c r="C29" t="n">
-        <v>3749.60009765625</v>
+        <v>16082</v>
       </c>
       <c r="D29" t="n">
-        <v>17.99471487100942</v>
+        <v>28.58773799377596</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^CRSLDX, ALPHA.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BANKBARODA.NS</t>
+          <t>SABEVENTS.NS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>241.3300018310547</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="C30" t="n">
-        <v>284.1499938964844</v>
+        <v>7.920000076293945</v>
       </c>
       <c r="D30" t="n">
-        <v>17.74333557391932</v>
+        <v>27.33119523224155</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FORTIS.NS</t>
+          <t>BALAJITELE.NS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.0739135742188</v>
+        <v>89.18000030517578</v>
       </c>
       <c r="C31" t="n">
-        <v>921</v>
+        <v>113.4400024414062</v>
       </c>
       <c r="D31" t="n">
-        <v>17.61341861028662</v>
+        <v>27.20341113838557</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UPL.NS</t>
+          <t>EICHERMOT.NS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>639.0518798828125</v>
+        <v>5587.548828125</v>
       </c>
       <c r="C32" t="n">
-        <v>750.8499755859375</v>
+        <v>7081.5</v>
       </c>
       <c r="D32" t="n">
-        <v>17.49436927149423</v>
+        <v>26.73714750115788</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ALPHA.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TVSMOTOR.NS</t>
+          <t>KIRLOSENG.NS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2939.300048828125</v>
+        <v>856.4027099609375</v>
       </c>
       <c r="C33" t="n">
-        <v>3441.89990234375</v>
+        <v>1085.199951171875</v>
       </c>
       <c r="D33" t="n">
-        <v>17.09930409166657</v>
+        <v>26.71608094530358</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ASHOKLEY.NS</t>
+          <t>RADICO.NS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>124.0238723754883</v>
+        <v>2585.051025390625</v>
       </c>
       <c r="C34" t="n">
-        <v>144.6900024414062</v>
+        <v>3260.699951171875</v>
       </c>
       <c r="D34" t="n">
-        <v>16.66302597241139</v>
+        <v>26.13677328396847</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>^DAARU, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXFMCG, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ALKEM.NS</t>
+          <t>ASIANPAINT.NS</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4898.443359375</v>
+        <v>2355.0244140625</v>
       </c>
       <c r="C35" t="n">
-        <v>5700</v>
+        <v>2953.5</v>
       </c>
       <c r="D35" t="n">
-        <v>16.36349717285027</v>
+        <v>25.41271259711098</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>^PAINT, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^NSEI, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IOC.NS</t>
+          <t>FEDERALBNK.NS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>144.1024780273438</v>
+        <v>207.1360931396484</v>
       </c>
       <c r="C36" t="n">
-        <v>167.3500061035156</v>
+        <v>258.25</v>
       </c>
       <c r="D36" t="n">
-        <v>16.13263588136257</v>
+        <v>24.67648495517932</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, NIFTYMIDCAP150.NS, ^CRSLDX, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POLYCAB.NS</t>
+          <t>GVT&amp;D.NS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6486</v>
+        <v>2331.5283203125</v>
       </c>
       <c r="C37" t="n">
-        <v>7521</v>
+        <v>2900.199951171875</v>
       </c>
       <c r="D37" t="n">
-        <v>15.95744680851064</v>
+        <v>24.39050925974404</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UNOMINDA.NS</t>
+          <t>GMRAIRPORT.NS</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1109.800048828125</v>
+        <v>84.76000213623047</v>
       </c>
       <c r="C38" t="n">
-        <v>1281.400024414062</v>
+        <v>105.3499984741211</v>
       </c>
       <c r="D38" t="n">
-        <v>15.46224256947327</v>
+        <v>24.29211399121647</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>^TRAVEL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, NIFTY_IND_TOURISM.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ETERNAL.NS</t>
+          <t>ADANIPOWER.NS</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>261.8599853515625</v>
+        <v>116.870002746582</v>
       </c>
       <c r="C39" t="n">
-        <v>301.9500122070312</v>
+        <v>144.9700012207031</v>
       </c>
       <c r="D39" t="n">
-        <v>15.30971858936199</v>
+        <v>24.04380749014991</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, ^CNXCONSUM, INFRABEES.NS, HDFCBANK.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PNB.NS</t>
+          <t>TVSMOTOR.NS</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.3399963378906</v>
+        <v>2939.300048828125</v>
       </c>
       <c r="C40" t="n">
-        <v>122.370002746582</v>
+        <v>3631.800048828125</v>
       </c>
       <c r="D40" t="n">
-        <v>15.07429655889471</v>
+        <v>23.56003090858635</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GLOBUSSPR.NS</t>
+          <t>HINDCOPPER.NS</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>951.0865478515625</v>
+        <v>274.7431945800781</v>
       </c>
       <c r="C41" t="n">
-        <v>1092.699951171875</v>
+        <v>339.2000122070312</v>
       </c>
       <c r="D41" t="n">
-        <v>14.88964423271544</v>
+        <v>23.46075131195513</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXMETAL, NIFTY500_MULTICAP.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BOSCHLTD.NS</t>
+          <t>3MINDIA.NS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31828.009765625</v>
+        <v>28166.169921875</v>
       </c>
       <c r="C42" t="n">
-        <v>36500</v>
+        <v>34760</v>
       </c>
       <c r="D42" t="n">
-        <v>14.67886389623036</v>
+        <v>23.4104604794135</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMNC, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BPCL.NS</t>
+          <t>NYKAA.NS</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>321.3731689453125</v>
+        <v>209.8600006103516</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5499877929688</v>
+        <v>258.1000061035156</v>
       </c>
       <c r="D43" t="n">
-        <v>13.43510380451318</v>
+        <v>22.98675562416089</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LTIM.NS</t>
+          <t>IIFL.NS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5272.26904296875</v>
+        <v>470.75</v>
       </c>
       <c r="C44" t="n">
-        <v>5926</v>
+        <v>574.4000244140625</v>
       </c>
       <c r="D44" t="n">
-        <v>12.39942331666637</v>
+        <v>22.01806147935475</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HINDALCO.NS</t>
+          <t>FORCEMOT.NS</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>692.273193359375</v>
+        <v>14468.05859375</v>
       </c>
       <c r="C45" t="n">
-        <v>777.7000122070312</v>
+        <v>17583</v>
       </c>
       <c r="D45" t="n">
-        <v>12.34004431590192</v>
+        <v>21.52978152573706</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HINDPETRO.NS</t>
+          <t>COASTCORP.NS</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>423.3758544921875</v>
+        <v>38.06977081298828</v>
       </c>
       <c r="C46" t="n">
-        <v>471.8999938964844</v>
+        <v>45.79999923706055</v>
       </c>
       <c r="D46" t="n">
-        <v>11.4612439253293</v>
+        <v>20.30542411732865</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>^FISHEXPORT</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>YESBANK.NS</t>
+          <t>MAHLIFE.NS</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20.18000030517578</v>
+        <v>349.927001953125</v>
       </c>
       <c r="C47" t="n">
-        <v>22.43000030517578</v>
+        <v>420.5</v>
       </c>
       <c r="D47" t="n">
-        <v>11.14965295329019</v>
+        <v>20.16792006703407</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, M%26M.NS</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JSWSTEEL.NS</t>
+          <t>BANKINDIA.NS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1026.136840820312</v>
+        <v>116.7699966430664</v>
       </c>
       <c r="C48" t="n">
-        <v>1140.300048828125</v>
+        <v>140.3000030517578</v>
       </c>
       <c r="D48" t="n">
-        <v>11.12553447711207</v>
+        <v>20.15072971237306</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MAHLIFE.NS</t>
+          <t>SHRIRAMFIN.NS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>349.927001953125</v>
+        <v>692.6035766601562</v>
       </c>
       <c r="C49" t="n">
-        <v>388.75</v>
+        <v>828.0999755859375</v>
       </c>
       <c r="D49" t="n">
-        <v>11.09459911072413</v>
+        <v>19.56334091994821</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>^MOTORFINANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1233,2362 +1478,6735 @@
         <v>447.2720947265625</v>
       </c>
       <c r="C50" t="n">
-        <v>496.3999938964844</v>
+        <v>532.7999877929688</v>
       </c>
       <c r="D50" t="n">
-        <v>10.98389542946022</v>
+        <v>19.12211695627765</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, NIFTY_INDIA_MFG.NS, ^CNXMNC, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JINDALSTEL.NS</t>
+          <t>BANKBARODA.NS</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>937.4901733398438</v>
+        <v>241.3300018310547</v>
       </c>
       <c r="C51" t="n">
-        <v>1038.599975585938</v>
+        <v>287</v>
       </c>
       <c r="D51" t="n">
-        <v>10.78515862047773</v>
+        <v>18.9242936321349</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TORNTPHARM.NS</t>
+          <t>SBIN.NS</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3341.39990234375</v>
+        <v>805.4000244140625</v>
       </c>
       <c r="C52" t="n">
-        <v>3686.5</v>
+        <v>951.0499877929688</v>
       </c>
       <c r="D52" t="n">
-        <v>10.32800944939836</v>
+        <v>18.08417667790217</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, NIFTY_FIN_SERVICE.NS, ^CNXFIN, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^CRSLDX, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADANIENSOL.NS</t>
+          <t>HINDALCO.NS</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>883.7000122070312</v>
+        <v>692.273193359375</v>
       </c>
       <c r="C53" t="n">
-        <v>974.7999877929688</v>
+        <v>816.2999877929688</v>
       </c>
       <c r="D53" t="n">
-        <v>10.30892546424394</v>
+        <v>17.91587419870071</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, BSLNIFTY.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLUESTARCO.NS</t>
+          <t>LEMONTREE.NS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1616.236206054688</v>
+        <v>138.6199951171875</v>
       </c>
       <c r="C54" t="n">
-        <v>1776.300048828125</v>
+        <v>162.8500061035156</v>
       </c>
       <c r="D54" t="n">
-        <v>9.90349320067277</v>
+        <v>17.47944873742377</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>^HOTEL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LT.NS</t>
+          <t>AUBANK.NS</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3679.199951171875</v>
+        <v>808.0035400390625</v>
       </c>
       <c r="C55" t="n">
-        <v>4024.89990234375</v>
+        <v>948.7000122070312</v>
       </c>
       <c r="D55" t="n">
-        <v>9.396063159376942</v>
+        <v>17.41285343393011</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEBANK, NIFTYMIDSML400.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SBILIFE.NS</t>
+          <t>LTIM.NS</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1850.599975585938</v>
+        <v>5272.26904296875</v>
       </c>
       <c r="C56" t="n">
-        <v>2022.5</v>
+        <v>6159</v>
       </c>
       <c r="D56" t="n">
-        <v>9.288880724189758</v>
+        <v>16.81877290032875</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB.NS</t>
+          <t>PVRINOX.NS</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>72.12393188476562</v>
+        <v>968.1500244140625</v>
       </c>
       <c r="C57" t="n">
-        <v>78.33000183105469</v>
+        <v>1129.699951171875</v>
       </c>
       <c r="D57" t="n">
-        <v>8.604730474490312</v>
+        <v>16.68645588844402</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMEDIA, ECAPINSURE.NS, NIFTYBEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PHOENIXLTD.NS</t>
+          <t>AVANTIFEED.NS</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1568.083129882812</v>
+        <v>709.4659423828125</v>
       </c>
       <c r="C58" t="n">
-        <v>1698</v>
+        <v>827.7999877929688</v>
       </c>
       <c r="D58" t="n">
-        <v>8.285075430082369</v>
+        <v>16.67931303548124</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>^FISHEXPORT, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ALPHA.NS</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BHARATFORG.NS</t>
+          <t>UPL.NS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1303.649169921875</v>
+        <v>639.0518798828125</v>
       </c>
       <c r="C59" t="n">
-        <v>1410.199951171875</v>
+        <v>743</v>
       </c>
       <c r="D59" t="n">
-        <v>8.173271130635964</v>
+        <v>16.26599082006444</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, ^AGRICULTURE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>WAAREEENER.NS</t>
+          <t>APEX.NS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2945.847412109375</v>
+        <v>241.0349884033203</v>
       </c>
       <c r="C60" t="n">
-        <v>3185.699951171875</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="D60" t="n">
-        <v>8.142055765568438</v>
+        <v>16.10347856853326</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>^FISHEXPORT</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MAHABANK.NS</t>
+          <t>ONMOBILE.NS</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>54.29999923706055</v>
+        <v>54.18999862670898</v>
       </c>
       <c r="C61" t="n">
-        <v>58.68000030517578</v>
+        <v>62.83000183105469</v>
       </c>
       <c r="D61" t="n">
-        <v>8.066300422939637</v>
+        <v>15.94390740598256</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BIOCON.NS</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1707.012939453125</v>
+        <v>353.9267883300781</v>
       </c>
       <c r="C62" t="n">
-        <v>1844.199951171875</v>
+        <v>410</v>
       </c>
       <c r="D62" t="n">
-        <v>8.036670873900963</v>
+        <v>15.84316686919642</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AUROPHARMA.NS</t>
+          <t>ALKEM.NS</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1116.807739257812</v>
+        <v>4898.443359375</v>
       </c>
       <c r="C63" t="n">
-        <v>1205.900024414062</v>
+        <v>5647.5</v>
       </c>
       <c r="D63" t="n">
-        <v>7.97740578118283</v>
+        <v>15.29172811994244</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DABUR.NS</t>
+          <t>MINDACORP.NS</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>478.9920349121094</v>
+        <v>512.1591796875</v>
       </c>
       <c r="C64" t="n">
-        <v>515.6500244140625</v>
+        <v>590.25</v>
       </c>
       <c r="D64" t="n">
-        <v>7.653152209238621</v>
+        <v>15.24737296715994</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BHARTIARTL.NS</t>
+          <t>MSUMI.NS</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2010.294067382812</v>
+        <v>40.06000137329102</v>
       </c>
       <c r="C65" t="n">
-        <v>2162.699951171875</v>
+        <v>46.13999938964844</v>
       </c>
       <c r="D65" t="n">
-        <v>7.581273121274173</v>
+        <v>15.17722867680954</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BHEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>263.5462036132812</v>
+        <v>1707.012939453125</v>
       </c>
       <c r="C66" t="n">
-        <v>282.5</v>
+        <v>1965.900024414062</v>
       </c>
       <c r="D66" t="n">
-        <v>7.191830550718501</v>
+        <v>15.16608802296935</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>VOLTAS.NS</t>
+          <t>BOSCHLTD.NS</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1305.300048828125</v>
+        <v>31828.009765625</v>
       </c>
       <c r="C67" t="n">
-        <v>1395.800048828125</v>
+        <v>36580</v>
       </c>
       <c r="D67" t="n">
-        <v>6.933271785383696</v>
+        <v>14.93021483079744</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI, ^CNXSERVICE, NIFTY100LOWVOL30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MOTHERSON.NS</t>
+          <t>M&amp;M.NS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>102.7533340454102</v>
+        <v>3177.76953125</v>
       </c>
       <c r="C68" t="n">
-        <v>109.8000030517578</v>
+        <v>3649.39990234375</v>
       </c>
       <c r="D68" t="n">
-        <v>6.857849501246836</v>
+        <v>14.84155368901881</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, M%26M.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TITAN.NS</t>
+          <t>FORTIS.NS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3655.19970703125</v>
+        <v>783.0739135742188</v>
       </c>
       <c r="C69" t="n">
-        <v>3904.199951171875</v>
+        <v>898.25</v>
       </c>
       <c r="D69" t="n">
-        <v>6.812219963293408</v>
+        <v>14.70820115818671</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>^HOSPITAL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NMDC.NS</t>
+          <t>ESCORTS.NS</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>68.94679260253906</v>
+        <v>3323.731201171875</v>
       </c>
       <c r="C70" t="n">
-        <v>73.51000213623047</v>
+        <v>3800</v>
       </c>
       <c r="D70" t="n">
-        <v>6.618450781310687</v>
+        <v>14.32934163449207</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>^IRONPIPE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, HDFCBANK.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HINDUNILVR.NS</t>
+          <t>UNOMINDA.NS</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2288.90673828125</v>
+        <v>1109.800048828125</v>
       </c>
       <c r="C71" t="n">
-        <v>2433.699951171875</v>
+        <v>1266.900024414062</v>
       </c>
       <c r="D71" t="n">
-        <v>6.325867737160443</v>
+        <v>14.15570090772879</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BAJFINANCE.NS</t>
+          <t>IOC.NS</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>947</v>
+        <v>144.1024780273438</v>
       </c>
       <c r="C72" t="n">
-        <v>1004.099975585938</v>
+        <v>164.1100006103516</v>
       </c>
       <c r="D72" t="n">
-        <v>6.029564475811774</v>
+        <v>13.88423214985334</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SUNPHARMA.NS</t>
+          <t>ETERNAL.NS</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1682.062866210938</v>
+        <v>261.8599853515625</v>
       </c>
       <c r="C73" t="n">
-        <v>1779.699951171875</v>
+        <v>297.75</v>
       </c>
       <c r="D73" t="n">
-        <v>5.80460379467728</v>
+        <v>13.70580335145633</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, ^CNX100, ALPHAETF.NS, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CGPOWER.NS</t>
+          <t>MOTHERSON.NS</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>672.2000122070312</v>
+        <v>102.7533340454102</v>
       </c>
       <c r="C74" t="n">
-        <v>710.2000122070312</v>
+        <v>116.5699996948242</v>
       </c>
       <c r="D74" t="n">
-        <v>5.653079337983761</v>
+        <v>13.44644023259431</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LUPIN.NS</t>
+          <t>AVALON.NS</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1923.23828125</v>
+        <v>825</v>
       </c>
       <c r="C75" t="n">
-        <v>2029.400024414062</v>
+        <v>932.8499755859375</v>
       </c>
       <c r="D75" t="n">
-        <v>5.519947486437466</v>
+        <v>13.07272431344697</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>^EMS, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>PNB.NS</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8436</v>
+        <v>106.3399963378906</v>
       </c>
       <c r="C76" t="n">
-        <v>8892</v>
+        <v>119.8000030517578</v>
       </c>
       <c r="D76" t="n">
-        <v>5.405405405405405</v>
+        <v>12.657520384991</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SONACOMS.NS</t>
+          <t>HINDZINC.NS</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>477.6503295898438</v>
+        <v>451.1499938964844</v>
       </c>
       <c r="C77" t="n">
-        <v>503.1499938964844</v>
+        <v>504.3999938964844</v>
       </c>
       <c r="D77" t="n">
-        <v>5.338563113425898</v>
+        <v>11.80316983717352</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXMETAL, NIFTY_INDIA_MFG.NS, MIDQ50ADD.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TATACONSUM.NS</t>
+          <t>IDFCFIRSTB.NS</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1124.300048828125</v>
+        <v>72.12393188476562</v>
       </c>
       <c r="C78" t="n">
-        <v>1183.099975585938</v>
+        <v>80.58000183105469</v>
       </c>
       <c r="D78" t="n">
-        <v>5.229914098029307</v>
+        <v>11.72436072925081</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PERSISTENT.NS</t>
+          <t>BPCL.NS</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5994.33837890625</v>
+        <v>321.3731689453125</v>
       </c>
       <c r="C79" t="n">
-        <v>6296.5</v>
+        <v>358.3999938964844</v>
       </c>
       <c r="D79" t="n">
-        <v>5.040783519279463</v>
+        <v>11.52144252511406</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, NIFTY500_MULTICAP.NS, EMULTIMQ.NS, EMULTIMQ.NS, VAL30IETF.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HDFCAMC.NS</t>
+          <t>JSWSTEEL.NS</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5148.5</v>
+        <v>1026.136840820312</v>
       </c>
       <c r="C80" t="n">
-        <v>5393.5</v>
+        <v>1143.599975585938</v>
       </c>
       <c r="D80" t="n">
-        <v>4.758667573079538</v>
+        <v>11.44712187428363</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ONGC.NS</t>
+          <t>POLYCAB.NS</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>235.7825317382812</v>
+        <v>6486</v>
       </c>
       <c r="C81" t="n">
-        <v>246.9499969482422</v>
+        <v>7227</v>
       </c>
       <c r="D81" t="n">
-        <v>4.736341207141177</v>
+        <v>11.42460684551341</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>^WIREANDCABLE, ^FMEG, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>UNIONBANK.NS</t>
+          <t>TORNTPHARM.NS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>144.1759948730469</v>
+        <v>3341.39990234375</v>
       </c>
       <c r="C82" t="n">
-        <v>150.8899993896484</v>
+        <v>3720.89990234375</v>
       </c>
       <c r="D82" t="n">
-        <v>4.656811643653668</v>
+        <v>11.35751514608617</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY100LOWVOL30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NESTLEIND.NS</t>
+          <t>SHANTHALA.NS</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1224.202758789062</v>
+        <v>29.54999923706055</v>
       </c>
       <c r="C83" t="n">
-        <v>1280.699951171875</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="D83" t="n">
-        <v>4.615019201451359</v>
+        <v>11.16751039682535</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>^SUTTA</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SHANTHALA.NS</t>
+          <t>TATACOMM.NS</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>29.54999923706055</v>
+        <v>1678.800048828125</v>
       </c>
       <c r="C84" t="n">
-        <v>30.89999961853027</v>
+        <v>1864.900024414062</v>
       </c>
       <c r="D84" t="n">
-        <v>4.568529327664431</v>
+        <v>11.08529724643762</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, HDFCBANK.NS, ^NSEI, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AXISBANK.NS</t>
+          <t>YESBANK.NS</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1224.053833007812</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="C85" t="n">
-        <v>1275.800048828125</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D85" t="n">
-        <v>4.227446083246098</v>
+        <v>11.00098751130893</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TATASTEEL.NS</t>
+          <t>NMDC.NS</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>161.4499969482422</v>
+        <v>68.94679260253906</v>
       </c>
       <c r="C86" t="n">
-        <v>168</v>
+        <v>76.05000305175781</v>
       </c>
       <c r="D86" t="n">
-        <v>4.056985553154033</v>
+        <v>10.30245234200664</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^CNXPSE, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DIXON.NS</t>
+          <t>KEI.NS</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>14466.5615234375</v>
+        <v>3780</v>
       </c>
       <c r="C87" t="n">
-        <v>14965</v>
+        <v>4161.60009765625</v>
       </c>
       <c r="D87" t="n">
-        <v>3.445452298771703</v>
+        <v>10.09524067873677</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>^WIREANDCABLE, ^FMEG, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, EVINDIA.NS, NIFTY_INDIA_MFG.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BSE.NS</t>
+          <t>HYUNDAI.NS</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2775.60009765625</v>
+        <v>2170.5771484375</v>
       </c>
       <c r="C88" t="n">
-        <v>2858.300048828125</v>
+        <v>2385.199951171875</v>
       </c>
       <c r="D88" t="n">
-        <v>2.979534092166513</v>
+        <v>9.887821904366414</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>INDIACEM.NS</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1440.199951171875</v>
+        <v>342.2000122070312</v>
       </c>
       <c r="C89" t="n">
-        <v>1479.800048828125</v>
+        <v>375.7000122070312</v>
       </c>
       <c r="D89" t="n">
-        <v>2.749624982560778</v>
+        <v>9.789596377843633</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>^CEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RELIANCE.NS</t>
+          <t>PHOENIXLTD.NS</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1509.371704101562</v>
+        <v>1568.083129882812</v>
       </c>
       <c r="C90" t="n">
-        <v>1546.599975585938</v>
+        <v>1721.199951171875</v>
       </c>
       <c r="D90" t="n">
-        <v>2.466474718136758</v>
+        <v>9.764585714311293</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, INFRABEES.NS, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MARICO.NS</t>
+          <t>ADANIENSOL.NS</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>724.4345092773438</v>
+        <v>883.7000122070312</v>
       </c>
       <c r="C91" t="n">
-        <v>739.9000244140625</v>
+        <v>969.5</v>
       </c>
       <c r="D91" t="n">
-        <v>2.134839649224649</v>
+        <v>9.709175807147972</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IOB.NS</t>
+          <t>ZFCVINDIA.NS</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>38.25</v>
+        <v>13478.7822265625</v>
       </c>
       <c r="C92" t="n">
-        <v>38.88999938964844</v>
+        <v>14787</v>
       </c>
       <c r="D92" t="n">
-        <v>1.673201018688725</v>
+        <v>9.705756435914576</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BRITANNIA.NS</t>
+          <t>UFO.NS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5719.544921875</v>
+        <v>73.09999847412109</v>
       </c>
       <c r="C93" t="n">
-        <v>5813</v>
+        <v>80.13999938964844</v>
       </c>
       <c r="D93" t="n">
-        <v>1.633960033560909</v>
+        <v>9.630644408316437</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PRESTIGE.NS</t>
+          <t>POWERINDIA.NS</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1663.4853515625</v>
+        <v>19936.21875</v>
       </c>
       <c r="C94" t="n">
-        <v>1688.5</v>
+        <v>21850</v>
       </c>
       <c r="D94" t="n">
-        <v>1.503749246364203</v>
+        <v>9.599519718351807</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>^TRANSFORMERMANUFACTURERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXENERGY, INFRABEES.NS, ^CNXMNC, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ALPHA.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ADANIGREEN.NS</t>
+          <t>GLOBUSSPR.NS</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1015.599975585938</v>
+        <v>951.0865478515625</v>
       </c>
       <c r="C95" t="n">
-        <v>1030.5</v>
+        <v>1035.199951171875</v>
       </c>
       <c r="D95" t="n">
-        <v>1.467115475801988</v>
+        <v>8.843927349232175</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>^DAARU</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>COALINDIA.NS</t>
+          <t>JSL.NS</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>373.1277465820312</v>
+        <v>688.2676391601562</v>
       </c>
       <c r="C96" t="n">
-        <v>378.2000122070312</v>
+        <v>748.4000244140625</v>
       </c>
       <c r="D96" t="n">
-        <v>1.359391166018493</v>
+        <v>8.73677357942929</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>APOLLOHOSP.NS</t>
+          <t>ENRIN.NS</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7299.1572265625</v>
+        <v>2901.199951171875</v>
       </c>
       <c r="C97" t="n">
-        <v>7391</v>
+        <v>3150.5</v>
       </c>
       <c r="D97" t="n">
-        <v>1.258265448828438</v>
+        <v>8.592997829309414</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFSL.NS</t>
+          <t>JINDALSTEL.NS</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1641.099975585938</v>
+        <v>937.4901733398438</v>
       </c>
       <c r="C98" t="n">
-        <v>1661.5</v>
+        <v>1017.900024414062</v>
       </c>
       <c r="D98" t="n">
-        <v>1.243070179607972</v>
+        <v>8.577140684873063</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>IPCALAB.NS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>413.5406494140625</v>
+        <v>1329.8544921875</v>
       </c>
       <c r="C99" t="n">
-        <v>416.3500061035156</v>
+        <v>1443.800048828125</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6793423315056565</v>
+        <v>8.568272492217854</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INDIGO.NS</t>
+          <t>BLUESTARCO.NS</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5806.18798828125</v>
+        <v>1616.236206054688</v>
       </c>
       <c r="C100" t="n">
-        <v>5843.5</v>
+        <v>1754.5</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6426249338474332</v>
+        <v>8.554677430647422</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>^ELECTRONICAPPLIANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CIPLA.NS</t>
+          <t>LT.NS</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1502.400024414062</v>
+        <v>3679.199951171875</v>
       </c>
       <c r="C101" t="n">
-        <v>1511.800048828125</v>
+        <v>3988</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6256672165409821</v>
+        <v>8.393130379602445</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>^INDUSTRIALCONGLOMERATE, ^ENGINEERING, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEI, INFRABEES.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>AUROPHARMA.NS</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2044</v>
+        <v>1116.807739257812</v>
       </c>
       <c r="C102" t="n">
-        <v>2052.39990234375</v>
+        <v>1208.900024414062</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4109541264065558</v>
+        <v>8.246028561500745</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS</t>
+          <t>LUPIN.NS</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1653.35595703125</v>
+        <v>1923.23828125</v>
       </c>
       <c r="C103" t="n">
-        <v>1659.699951171875</v>
+        <v>2080.10009765625</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3837040725347622</v>
+        <v>8.156130102833558</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MPHASIS.NS</t>
+          <t>MOTILALOFS.NS</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2745.147216796875</v>
+        <v>854.3499755859375</v>
       </c>
       <c r="C104" t="n">
-        <v>2747.10009765625</v>
+        <v>922.2000122070312</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0711393854371746</v>
+        <v>7.941714585355991</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI, ECAPINSURE.NS, EMULTIMQ.NS, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SIEMENS.NS</t>
+          <t>BHARATFORG.NS</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3178.39990234375</v>
+        <v>1303.649169921875</v>
       </c>
       <c r="C105" t="n">
-        <v>3173.5</v>
+        <v>1406.699951171875</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1541625501604381</v>
+        <v>7.904793991175986</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, MODEFENCE.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ICICIGI.NS</t>
+          <t>BAJFINANCE.NS</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2010.567260742188</v>
+        <v>947</v>
       </c>
       <c r="C106" t="n">
-        <v>2004.099975585938</v>
+        <v>1021.400024414062</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.3216647004319888</v>
+        <v>7.856391173607445</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>UNITDSPR.NS</t>
+          <t>ROHLTD.NS</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1433.591064453125</v>
+        <v>386.2578735351562</v>
       </c>
       <c r="C107" t="n">
-        <v>1427.099975585938</v>
+        <v>415.2000122070312</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.4527852487462085</v>
+        <v>7.49295759513903</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>^HOTEL</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>POLICYBZR.NS</t>
+          <t>SUNPHARMA.NS</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1819.900024414062</v>
+        <v>1682.062866210938</v>
       </c>
       <c r="C108" t="n">
-        <v>1810.800048828125</v>
+        <v>1806.699951171875</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5000261258234414</v>
+        <v>7.409775666809561</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>OIL.NS</t>
+          <t>BTML.NS</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>428.3212280273438</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C109" t="n">
-        <v>425.0499877929688</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.7637352576338258</v>
+        <v>7.179480157033476</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>APLAPOLLO.NS</t>
+          <t>HINDUNILVR.NS</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1749.792846679688</v>
+        <v>2288.90673828125</v>
       </c>
       <c r="C110" t="n">
-        <v>1727.800048828125</v>
+        <v>2448</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.256880086879704</v>
+        <v>6.950622279971697</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>INDUSINDBK.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>857.7000122070312</v>
+        <v>8436</v>
       </c>
       <c r="C111" t="n">
-        <v>846.5499877929688</v>
+        <v>9000.5</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.29999116886699</v>
+        <v>6.691559981033665</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ATULAUTO.NS</t>
+          <t>SBILIFE.NS</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>455.4500122070312</v>
+        <v>1850.599975585938</v>
       </c>
       <c r="C112" t="n">
-        <v>449.5</v>
+        <v>1972.800048828125</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.30640290867455</v>
+        <v>6.603267851200337</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>^INSURANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CENTRALBK.NS</t>
+          <t>HINDPETRO.NS</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>38.60842895507812</v>
+        <v>423.3758544921875</v>
       </c>
       <c r="C113" t="n">
-        <v>38.04000091552734</v>
+        <v>450.7000122070312</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.472290002300175</v>
+        <v>6.453877193260666</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, RKEC.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NTPC.NS</t>
+          <t>MRF.NS</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>332.08984375</v>
+        <v>142994.3125</v>
       </c>
       <c r="C114" t="n">
-        <v>326.6499938964844</v>
+        <v>152040</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.638065708992531</v>
+        <v>6.325907192987133</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^NSEI, ^CNXSERVICE, NIFTYMIDCAP150.NS, ^CRSLDX, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RAGHUNAT.BO</t>
+          <t>EIHOTEL.NS</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12.53999996185303</v>
+        <v>356.9317321777344</v>
       </c>
       <c r="C115" t="n">
-        <v>12.3100004196167</v>
+        <v>378.7000122070312</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.834127136650655</v>
+        <v>6.098723668103946</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>^HOTEL, ^TRAVEL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>INFY.NS</t>
+          <t>SIGNPOST.NS</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1583.754516601562</v>
+        <v>193.7656402587891</v>
       </c>
       <c r="C116" t="n">
-        <v>1545</v>
+        <v>205.1799926757812</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.447002751709423</v>
+        <v>5.890803138135034</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ITC.NS</t>
+          <t>BHEL.NS</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>418.6499938964844</v>
+        <v>263.5462036132812</v>
       </c>
       <c r="C117" t="n">
-        <v>407.8500061035156</v>
+        <v>278.5499877929688</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.579717652077444</v>
+        <v>5.693037491711906</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, ^TRANSFORMERMANUFACTURERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, RKEC.NS, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>UCOBANK.NS</t>
+          <t>DABUR.NS</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>31.53000068664551</v>
+        <v>478.9920349121094</v>
       </c>
       <c r="C118" t="n">
-        <v>30.70000076293945</v>
+        <v>506</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.632413275073604</v>
+        <v>5.638499832851362</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXFMCG, HDFCBANK.NS, ^NSEI, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MHRIL.NS</t>
+          <t>PERSISTENT.NS</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>339.3999938964844</v>
+        <v>5994.33837890625</v>
       </c>
       <c r="C119" t="n">
-        <v>330.3999938964844</v>
+        <v>6331</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.651738409501847</v>
+        <v>5.61632660375737</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>VMM.NS</t>
+          <t>WAAREEENER.NS</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>134.6600036621094</v>
+        <v>2945.847412109375</v>
       </c>
       <c r="C120" t="n">
-        <v>130.9199981689453</v>
+        <v>3108.60009765625</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.777369219852788</v>
+        <v>5.524817235198746</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>^SOLARMANUFACTURINGANDMAINTENANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEI, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OLAELEC.NS</t>
+          <t>UNIONBANK.NS</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>43.09000015258789</v>
+        <v>144.1759948730469</v>
       </c>
       <c r="C121" t="n">
-        <v>41.86000061035156</v>
+        <v>151.3800048828125</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.854489528616205</v>
+        <v>4.996677856191708</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PIDILITIND.NS</t>
+          <t>SIEMENS.NS</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1515.449951171875</v>
+        <v>3178.39990234375</v>
       </c>
       <c r="C122" t="n">
-        <v>1472.099975585938</v>
+        <v>3329.89990234375</v>
       </c>
       <c r="D122" t="n">
-        <v>-2.860534955470856</v>
+        <v>4.766549353600345</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, ^TRANSFORMERMANUFACTURERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EXIDEIND.NS</t>
+          <t>AJANTPHARM.NS</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>386.4244689941406</v>
+        <v>2492.73876953125</v>
       </c>
       <c r="C123" t="n">
-        <v>375.3500061035156</v>
+        <v>2606.699951171875</v>
       </c>
       <c r="D123" t="n">
-        <v>-2.865880341235048</v>
+        <v>4.571725807516323</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>VBL.NS</t>
+          <t>TITAN.NS</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>461.1583557128906</v>
+        <v>3655.19970703125</v>
       </c>
       <c r="C124" t="n">
-        <v>447.6499938964844</v>
+        <v>3817.800048828125</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.929224126390182</v>
+        <v>4.448466700303467</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>^GOLDFINANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GODFRYPHLP.NS</t>
+          <t>MAHABANK.NS</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2981.28125</v>
+        <v>54.29999923706055</v>
       </c>
       <c r="C125" t="n">
-        <v>2888.199951171875</v>
+        <v>56.63999938964844</v>
       </c>
       <c r="D125" t="n">
-        <v>-3.122191132692529</v>
+        <v>4.309392606751283</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ULTRACEMCO.NS</t>
+          <t>MPHASIS.NS</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>12136.0732421875</v>
+        <v>2745.147216796875</v>
       </c>
       <c r="C126" t="n">
-        <v>11729</v>
+        <v>2861</v>
       </c>
       <c r="D126" t="n">
-        <v>-3.354241805104053</v>
+        <v>4.220275783180245</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GODREJCP.NS</t>
+          <t>ADANIPORTS.NS</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1166.38916015625</v>
+        <v>1440.199951171875</v>
       </c>
       <c r="C127" t="n">
-        <v>1125.199951171875</v>
+        <v>1497.699951171875</v>
       </c>
       <c r="D127" t="n">
-        <v>-3.531343602237977</v>
+        <v>3.992501176882618</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>^DELIVERY, ^PORTSOPERATION, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, INFRABEES.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GAIL.NS</t>
+          <t>OLECTRA.NS</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>189.9246520996094</v>
+        <v>1163.920166015625</v>
       </c>
       <c r="C128" t="n">
-        <v>182.9900054931641</v>
+        <v>1208.800048828125</v>
       </c>
       <c r="D128" t="n">
-        <v>-3.651261976674999</v>
+        <v>3.855924497479453</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ECAPINSURE.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>INDUSTOWER.NS</t>
+          <t>AXISBANK.NS</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>412.2000122070312</v>
+        <v>1224.053833007812</v>
       </c>
       <c r="C129" t="n">
-        <v>397</v>
+        <v>1270.699951171875</v>
       </c>
       <c r="D129" t="n">
-        <v>-3.687533177315119</v>
+        <v>3.810789763179049</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, NIFTY_FIN_SERVICE.NS, ^CNXFIN, ^NSEI, ^CNXSERVICE, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DRREDDY.NS</t>
+          <t>BHARTIARTL.NS</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1292.800903320312</v>
+        <v>2010.294067382812</v>
       </c>
       <c r="C130" t="n">
-        <v>1243.900024414062</v>
+        <v>2086</v>
       </c>
       <c r="D130" t="n">
-        <v>-3.782552965476542</v>
+        <v>3.765913347978413</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>^DATACENTER, ^TELECOMSERVICE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, ^CNXINFRA, HDFCBANK.NS, ^NSEI, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DIVISLAB.NS</t>
+          <t>VBL.NS</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6627.82080078125</v>
+        <v>461.1583557128906</v>
       </c>
       <c r="C131" t="n">
-        <v>6373</v>
+        <v>477.5</v>
       </c>
       <c r="D131" t="n">
-        <v>-3.844714702473748</v>
+        <v>3.543607978618825</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^NSEI, HDFCQUAL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MANKIND.NS</t>
+          <t>TATASTEEL.NS</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2332.48046875</v>
+        <v>161.4499969482422</v>
       </c>
       <c r="C132" t="n">
-        <v>2242.10009765625</v>
+        <v>166.9199981689453</v>
       </c>
       <c r="D132" t="n">
-        <v>-3.874860788960251</v>
+        <v>3.388046654752619</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>GRASIM.NS</t>
+          <t>LTTS.NS</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2850.729736328125</v>
+        <v>4366.681640625</v>
       </c>
       <c r="C133" t="n">
-        <v>2734.800048828125</v>
+        <v>4513.10009765625</v>
       </c>
       <c r="D133" t="n">
-        <v>-4.066667072036191</v>
+        <v>3.353082937603238</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_IND_DIGITAL.NS, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MAHLOG.NS</t>
+          <t>SONACOMS.NS</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>335.0260925292969</v>
+        <v>477.6503295898438</v>
       </c>
       <c r="C134" t="n">
-        <v>321.1499938964844</v>
+        <v>491.6499938964844</v>
       </c>
       <c r="D134" t="n">
-        <v>-4.141796398022068</v>
+        <v>2.930944132010141</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>INDHOTEL.NS</t>
+          <t>ABFRL.NS</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>765.1500244140625</v>
+        <v>74.69999694824219</v>
       </c>
       <c r="C135" t="n">
-        <v>733.2000122070312</v>
+        <v>76.73999786376953</v>
       </c>
       <c r="D135" t="n">
-        <v>-4.175653295116597</v>
+        <v>2.730925031952559</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ECAPINSURE.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>JBMA.NS</t>
+          <t>AMBER.NS</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>641.6422119140625</v>
+        <v>6848.5</v>
       </c>
       <c r="C136" t="n">
-        <v>614.5999755859375</v>
+        <v>7026.5</v>
       </c>
       <c r="D136" t="n">
-        <v>-4.214535114118531</v>
+        <v>2.599109294005987</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>^ELECTRONICAPPLIANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, MOMENTUM50.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE.NS</t>
+          <t>VOLTAS.NS</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>970.6805419921875</v>
+        <v>1305.300048828125</v>
       </c>
       <c r="C137" t="n">
-        <v>924.2999877929688</v>
+        <v>1335.900024414062</v>
       </c>
       <c r="D137" t="n">
-        <v>-4.778148133476446</v>
+        <v>2.344286711197905</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>^ELECTRONICAPPLIANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, ^NSEI, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>COFORGE.NS</t>
+          <t>RELIANCE.NS</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1890.963500976562</v>
+        <v>1509.371704101562</v>
       </c>
       <c r="C138" t="n">
-        <v>1797.5</v>
+        <v>1538.800048828125</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.942639079405527</v>
+        <v>1.949708255865271</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>^INDUSTRIALCONGLOMERATE, ^DATACENTER, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HCLTECH.NS</t>
+          <t>BRITANNIA.NS</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1696.36181640625</v>
+        <v>5719.544921875</v>
       </c>
       <c r="C139" t="n">
-        <v>1608</v>
+        <v>5824.5</v>
       </c>
       <c r="D139" t="n">
-        <v>-5.208901518040821</v>
+        <v>1.835024981158698</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>POWERGRID.NS</t>
+          <t>ONGC.NS</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>293.0321655273438</v>
+        <v>235.7825469970703</v>
       </c>
       <c r="C140" t="n">
-        <v>277.6000061035156</v>
+        <v>240.0200042724609</v>
       </c>
       <c r="D140" t="n">
-        <v>-5.266370466892687</v>
+        <v>1.797188693293434</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, RKEC.NS, ^CNXINFRA, ^CNXPSE, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HDFCLIFE.NS</t>
+          <t>ENDURANCE.NS</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>806.9500122070312</v>
+        <v>2622.083740234375</v>
       </c>
       <c r="C141" t="n">
-        <v>764</v>
+        <v>2668.5</v>
       </c>
       <c r="D141" t="n">
-        <v>-5.322512120615965</v>
+        <v>1.770205087404115</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>KOTAKBANK.NS</t>
+          <t>PATANJALI.NS</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2205.357177734375</v>
+        <v>546.9927368164062</v>
       </c>
       <c r="C142" t="n">
-        <v>2087.800048828125</v>
+        <v>555.1500244140625</v>
       </c>
       <c r="D142" t="n">
-        <v>-5.330525598897305</v>
+        <v>1.491297241921912</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXFMCG, HDFCBANK.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TATAPOWER.NS</t>
+          <t>NESTLEIND.NS</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>408.8500061035156</v>
+        <v>1224.202758789062</v>
       </c>
       <c r="C143" t="n">
-        <v>387</v>
+        <v>1241.900024414062</v>
       </c>
       <c r="D143" t="n">
-        <v>-5.344259698502605</v>
+        <v>1.445615564737454</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ICICIBANK.NS</t>
+          <t>MFSL.NS</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1451.00390625</v>
+        <v>1641.099975585938</v>
       </c>
       <c r="C144" t="n">
-        <v>1369.5</v>
+        <v>1664.800048828125</v>
       </c>
       <c r="D144" t="n">
-        <v>-5.617070078097869</v>
+        <v>1.444157796280853</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>^INSURANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HAL.NS</t>
+          <t>SAIL.NS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4881.4580078125</v>
+        <v>130.0697937011719</v>
       </c>
       <c r="C145" t="n">
-        <v>4595</v>
+        <v>131.9199981689453</v>
       </c>
       <c r="D145" t="n">
-        <v>-5.868287863053211</v>
+        <v>1.422470517654683</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI, RKEC.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>WIPRO.NS</t>
+          <t>TATACONSUM.NS</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>259.9371337890625</v>
+        <v>1124.300048828125</v>
       </c>
       <c r="C146" t="n">
-        <v>244.4900054931641</v>
+        <v>1140</v>
       </c>
       <c r="D146" t="n">
-        <v>-5.942640080210199</v>
+        <v>1.396420038248624</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JIOFIN.NS</t>
+          <t>PNC.NS</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>322.9464111328125</v>
+        <v>26.15999984741211</v>
       </c>
       <c r="C147" t="n">
-        <v>303.5499877929688</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.006081093084798</v>
+        <v>1.337921955318171</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TIINDIA.NS</t>
+          <t>COFORGE.NS</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3080.52490234375</v>
+        <v>1890.963500976562</v>
       </c>
       <c r="C148" t="n">
-        <v>2884.39990234375</v>
+        <v>1912.5</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.366609789480441</v>
+        <v>1.138916695764634</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DMART.NS</t>
+          <t>POLICYBZR.NS</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4313.5</v>
+        <v>1819.900024414062</v>
       </c>
       <c r="C149" t="n">
-        <v>4038</v>
+        <v>1839.099975585938</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.386924771067578</v>
+        <v>1.055000324979755</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SUNDARMFIN.NS</t>
+          <t>CHOLAFIN.NS</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5028.01513671875</v>
+        <v>1653.35595703125</v>
       </c>
       <c r="C150" t="n">
-        <v>4703.2001953125</v>
+        <v>1668.900024414062</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.460102696075457</v>
+        <v>0.9401525011421786</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>^MOTORFINANCE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>COROMANDEL.NS</t>
+          <t>HDFCAMC.NS</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2422.996826171875</v>
+        <v>2574.25</v>
       </c>
       <c r="C151" t="n">
-        <v>2262.800048828125</v>
+        <v>2596.199951171875</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.611514122238741</v>
+        <v>0.8526736397737205</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PSB.NS</t>
+          <t>COALINDIA.NS</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>32.02403259277344</v>
+        <v>373.1277770996094</v>
       </c>
       <c r="C152" t="n">
-        <v>29.73999977111816</v>
+        <v>375.25</v>
       </c>
       <c r="D152" t="n">
-        <v>-7.132246118718633</v>
+        <v>0.5687657233366684</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, ^CNXPSE, HDFCQUAL.NS, EMULTIMQ.NS, VAL30IETF.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JSWENERGY.NS</t>
+          <t>CIPLA.NS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>522.5</v>
+        <v>1502.400024414062</v>
       </c>
       <c r="C153" t="n">
-        <v>484.5499877929688</v>
+        <v>1508</v>
       </c>
       <c r="D153" t="n">
-        <v>-7.263160231010765</v>
+        <v>0.3727353231454782</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>KPITTECH.NS</t>
+          <t>GLAND.NS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1260.904907226562</v>
+        <v>1764.9580078125</v>
       </c>
       <c r="C154" t="n">
-        <v>1168.900024414062</v>
+        <v>1771</v>
       </c>
       <c r="D154" t="n">
-        <v>-7.296734455167628</v>
+        <v>0.3423306481375431</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, ^CNXMNC, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>NHPC.NS</t>
+          <t>APLAPOLLO.NS</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>85.03736877441406</v>
+        <v>1749.792846679688</v>
       </c>
       <c r="C155" t="n">
-        <v>78.81999969482422</v>
+        <v>1752.099975585938</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.311337555708236</v>
+        <v>0.1318515452059301</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>^IRONPIPE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>COLPAL.NS</t>
+          <t>BAJAJFINSV.NS</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2353.841796875</v>
+        <v>2044</v>
       </c>
       <c r="C156" t="n">
-        <v>2180.60009765625</v>
+        <v>2046</v>
       </c>
       <c r="D156" t="n">
-        <v>-7.359955093360505</v>
+        <v>0.09784735812133072</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MAXHEALTH.NS</t>
+          <t>ANANTRAJ.NS</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1277.825439453125</v>
+        <v>553.333984375</v>
       </c>
       <c r="C157" t="n">
-        <v>1181.099975585938</v>
+        <v>553.3499755859375</v>
       </c>
       <c r="D157" t="n">
-        <v>-7.569536564288734</v>
+        <v>0.002889974479981081</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXREALTY, INFRABEES.NS, ECAPINSURE.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TCS.NS</t>
+          <t>MANAPPURAM.NS</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3416.718505859375</v>
+        <v>275.8447265625</v>
       </c>
       <c r="C158" t="n">
-        <v>3150.60009765625</v>
+        <v>275.7999877929688</v>
       </c>
       <c r="D158" t="n">
-        <v>-7.788713285766886</v>
+        <v>-0.0162188235710619</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>^GOLDFINANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, MOMENTUM50.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HAVELLS.NS</t>
+          <t>VMM.NS</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1566.800048828125</v>
+        <v>134.6600036621094</v>
       </c>
       <c r="C159" t="n">
-        <v>1441.099975585938</v>
+        <v>134.4900054931641</v>
       </c>
       <c r="D159" t="n">
-        <v>-8.022725895126429</v>
+        <v>-0.1262425102644985</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ECAPINSURE.NS, ^NSEI, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RECLTD.NS</t>
+          <t>KPITTECH.NS</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>390.6529541015625</v>
+        <v>1260.904907226562</v>
       </c>
       <c r="C160" t="n">
-        <v>358.2000122070312</v>
+        <v>1258.699951171875</v>
       </c>
       <c r="D160" t="n">
-        <v>-8.307358629648066</v>
+        <v>-0.1748709234178044</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_IND_DIGITAL.NS, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ADANIENT.NS</t>
+          <t>IOB.NS</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2646.300048828125</v>
+        <v>38.25</v>
       </c>
       <c r="C161" t="n">
-        <v>2422.300048828125</v>
+        <v>38.15999984741211</v>
       </c>
       <c r="D161" t="n">
-        <v>-8.464648598680075</v>
+        <v>-0.2352945165696487</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>KALYANKJIL.NS</t>
+          <t>ADANIGREEN.NS</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>543.1605834960938</v>
+        <v>1015.599975585938</v>
       </c>
       <c r="C162" t="n">
-        <v>496.4500122070312</v>
+        <v>1012.599975585938</v>
       </c>
       <c r="D162" t="n">
-        <v>-8.599771910621056</v>
+        <v>-0.295391893670457</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>^SOLARMANUFACTURINGANDMAINTENANCE, ^RENEWABLEPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, ^NSEI, INFRABEES.NS, ^CNXINFRA, HDFCBANK.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SWARAJENG.NS</t>
+          <t>SCHAEFFLER.NS</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4100.5</v>
+        <v>3897.300048828125</v>
       </c>
       <c r="C163" t="n">
-        <v>3739.60009765625</v>
+        <v>3885.10009765625</v>
       </c>
       <c r="D163" t="n">
-        <v>-8.801363305542006</v>
+        <v>-0.3130359741109333</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^CNXMNC, ^CNXSERVICE, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MAHEPC.NS</t>
+          <t>INFY.NS</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>141.8999938964844</v>
+        <v>1583.754516601562</v>
       </c>
       <c r="C164" t="n">
-        <v>127.7200012207031</v>
+        <v>1578.699951171875</v>
       </c>
       <c r="D164" t="n">
-        <v>-9.992948051939674</v>
+        <v>-0.3191508138858313</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TECHM.NS</t>
+          <t>RAGHUNAT.BO</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1627.316284179688</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="C165" t="n">
-        <v>1461.5</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="D165" t="n">
-        <v>-10.18955477750127</v>
+        <v>-0.3987256051592108</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>^SUTTA</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SRF.NS</t>
+          <t>CHALET.NS</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3170.6455078125</v>
+        <v>915.2860107421875</v>
       </c>
       <c r="C166" t="n">
-        <v>2838.39990234375</v>
+        <v>911.2000122070312</v>
       </c>
       <c r="D166" t="n">
-        <v>-10.47880012603408</v>
+        <v>-0.4464176756993144</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>^HOTEL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NAUKRI.NS</t>
+          <t>ARE&amp;M.NS</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1501.729858398438</v>
+        <v>951.449462890625</v>
       </c>
       <c r="C167" t="n">
-        <v>1340.400024414062</v>
+        <v>945.6500244140625</v>
       </c>
       <c r="D167" t="n">
-        <v>-10.74293309693062</v>
+        <v>-0.6095372064158894</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, SMALLCAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>IRCTC.NS</t>
+          <t>ATULAUTO.NS</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>778.590576171875</v>
+        <v>455.4500122070312</v>
       </c>
       <c r="C168" t="n">
-        <v>690.4000244140625</v>
+        <v>451.7999877929688</v>
       </c>
       <c r="D168" t="n">
-        <v>-11.32694826482774</v>
+        <v>-0.8014105425917366</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>UBL.NS</t>
+          <t>UNITDSPR.NS</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1948.961059570312</v>
+        <v>1433.591064453125</v>
       </c>
       <c r="C169" t="n">
-        <v>1726.900024414062</v>
+        <v>1421.300048828125</v>
       </c>
       <c r="D169" t="n">
-        <v>-11.39381590339254</v>
+        <v>-0.857358554316093</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>^DAARU, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, ^NSEI, NIFTY200MOMENTM30.NS, HDFCQUAL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SBICARD.NS</t>
+          <t>BSE.NS</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>991.3499755859375</v>
+        <v>2775.60009765625</v>
       </c>
       <c r="C170" t="n">
-        <v>878.0499877929688</v>
+        <v>2751.10009765625</v>
       </c>
       <c r="D170" t="n">
-        <v>-11.42885868595526</v>
+        <v>-0.8826919994954638</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ^CNXSERVICE, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GODREJPROP.NS</t>
+          <t>KAJARIACER.NS</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2362.300048828125</v>
+        <v>1078.196166992188</v>
       </c>
       <c r="C171" t="n">
-        <v>2090.89990234375</v>
+        <v>1068.599975585938</v>
       </c>
       <c r="D171" t="n">
-        <v>-11.48880924838525</v>
+        <v>-0.8900227713682396</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ^NSEI, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PFC.NS</t>
+          <t>SWIGGY.NS</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>417.8051452636719</v>
+        <v>406.9500122070312</v>
       </c>
       <c r="C172" t="n">
-        <v>369.7000122070312</v>
+        <v>403.25</v>
       </c>
       <c r="D172" t="n">
-        <v>-11.51377229360879</v>
+        <v>-0.909205577108795</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, ^NSEI, ^NSEI, ^CNXSERVICE, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NTCIND.BO</t>
+          <t>DRREDDY.NS</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>197.3000030517578</v>
+        <v>1292.800903320312</v>
       </c>
       <c r="C173" t="n">
-        <v>173.8000030517578</v>
+        <v>1280.699951171875</v>
       </c>
       <c r="D173" t="n">
-        <v>-11.91079555829263</v>
+        <v>-0.9360259663617585</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VSTIND.NS</t>
+          <t>CGPOWER.NS</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>287.3502502441406</v>
+        <v>672.2000122070312</v>
       </c>
       <c r="C174" t="n">
-        <v>252.3000030517578</v>
+        <v>664.2000122070312</v>
       </c>
       <c r="D174" t="n">
-        <v>-12.19774375091136</v>
+        <v>-1.190121965891318</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^SEMICONDUCTOR, ^TRANSFORMERMANUFACTURERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXENERGY, EVINDIA.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, NIFTY100LOWVOL30.NS, EMULTIMQ.NS, ALPHA.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TORNTPOWER.NS</t>
+          <t>INDUSINDBK.NS</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1473.199951171875</v>
+        <v>857.7000122070312</v>
       </c>
       <c r="C175" t="n">
-        <v>1291.400024414062</v>
+        <v>846.9000244140625</v>
       </c>
       <c r="D175" t="n">
-        <v>-12.34047873903319</v>
+        <v>-1.25918009085464</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, ^CNXSERVICE, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>THERMAX.NS</t>
+          <t>PRESTIGE.NS</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3334.346923828125</v>
+        <v>1663.4853515625</v>
       </c>
       <c r="C176" t="n">
-        <v>2886.699951171875</v>
+        <v>1642.199951171875</v>
       </c>
       <c r="D176" t="n">
-        <v>-13.42532684458376</v>
+        <v>-1.279566445874126</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, INFRABEES.NS, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>OBEROIRLTY.NS</t>
+          <t>CINELINE.NS</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1914.3515625</v>
+        <v>86.26999664306641</v>
       </c>
       <c r="C177" t="n">
-        <v>1655.400024414062</v>
+        <v>84.94999694824219</v>
       </c>
       <c r="D177" t="n">
-        <v>-13.52685385268347</v>
+        <v>-1.53007968724699</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>DLF.NS</t>
+          <t>APOLLOHOSP.NS</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>839.6583862304688</v>
+        <v>7299.1572265625</v>
       </c>
       <c r="C178" t="n">
-        <v>725.3499755859375</v>
+        <v>7184</v>
       </c>
       <c r="D178" t="n">
-        <v>-13.61368057761004</v>
+        <v>-1.577678394752605</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>^HOSPITAL, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, ^CNXCONSUM, ^CNXINFRA, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>IRFC.NS</t>
+          <t>JBCHEPHARM.NS</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>138.8151245117188</v>
+        <v>1794.404663085938</v>
       </c>
       <c r="C179" t="n">
-        <v>119.0899963378906</v>
+        <v>1763.5</v>
       </c>
       <c r="D179" t="n">
-        <v>-14.20963907442444</v>
+        <v>-1.722279468043124</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SHREECEM.NS</t>
+          <t>INDUSTOWER.NS</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>30882.017578125</v>
+        <v>412.2000122070312</v>
       </c>
       <c r="C180" t="n">
-        <v>26480</v>
+        <v>404.6499938964844</v>
       </c>
       <c r="D180" t="n">
-        <v>-14.25430695060264</v>
+        <v>-1.831639516486673</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, INFRABEES.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ABB.NS</t>
+          <t>ICICIGI.NS</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>6057.91455078125</v>
+        <v>2010.567260742188</v>
       </c>
       <c r="C181" t="n">
-        <v>5092</v>
+        <v>1972.400024414062</v>
       </c>
       <c r="D181" t="n">
-        <v>-15.94467110231329</v>
+        <v>-1.89833173320627</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>^INSURANCE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TATAELXSI.NS</t>
+          <t>MARICO.NS</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6345</v>
+        <v>724.4345092773438</v>
       </c>
       <c r="C182" t="n">
-        <v>5320.5</v>
+        <v>710.6500244140625</v>
       </c>
       <c r="D182" t="n">
-        <v>-16.14657210401892</v>
+        <v>-1.902792410735913</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXFMCG, HDFCBANK.NS, ^NSEI, NIFTYMIDCAP150.NS, ^CRSLDX, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JUBLFOOD.NS</t>
+          <t>WIPRO.NS</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>708.7144165039062</v>
+        <v>259.9371337890625</v>
       </c>
       <c r="C183" t="n">
-        <v>589.0499877929688</v>
+        <v>254.6900024414062</v>
       </c>
       <c r="D183" t="n">
-        <v>-16.88471772611076</v>
+        <v>-2.018615528750989</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ENGINERSIN.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>235.6529083251953</v>
+        <v>413.5406494140625</v>
       </c>
       <c r="C184" t="n">
-        <v>195.7700042724609</v>
+        <v>403.9500122070312</v>
       </c>
       <c r="D184" t="n">
-        <v>-16.92442683444285</v>
+        <v>-2.31915223343099</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^ELECTRONICDEFENCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_CPSE.NS, MODEFENCE.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, RKEC.NS, ^CNXPSE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, EMULTIMQ.NS, ALPHA.NS, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LODHA.NS</t>
+          <t>PIDILITIND.NS</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1417.527465820312</v>
+        <v>1515.449951171875</v>
       </c>
       <c r="C185" t="n">
-        <v>1176.800048828125</v>
+        <v>1478.599975585938</v>
       </c>
       <c r="D185" t="n">
-        <v>-16.98220477533254</v>
+        <v>-2.431619438005324</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PIIND.NS</t>
+          <t>RAMCOCEM.NS</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4147.12255859375</v>
+        <v>1053.182739257812</v>
       </c>
       <c r="C186" t="n">
-        <v>3427.39990234375</v>
+        <v>1027.5</v>
       </c>
       <c r="D186" t="n">
-        <v>-17.3547476854422</v>
+        <v>-2.438583381637204</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXCMDT, ^NSEI, INFRABEES.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SUZLON.NS</t>
+          <t>DIVISLAB.NS</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>67.31999969482422</v>
+        <v>6627.82080078125</v>
       </c>
       <c r="C187" t="n">
-        <v>55.09999847412109</v>
+        <v>6455</v>
       </c>
       <c r="D187" t="n">
-        <v>-18.15211122415177</v>
+        <v>-2.607505633840898</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, MOMENTUM50.NS, ALPHA.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SUPREMEIND.NS</t>
+          <t>KOTAKBANK.NS</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4329.47216796875</v>
+        <v>2205.357177734375</v>
       </c>
       <c r="C188" t="n">
-        <v>3475.300048828125</v>
+        <v>2146.10009765625</v>
       </c>
       <c r="D188" t="n">
-        <v>-19.72924379697249</v>
+        <v>-2.686960673599433</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, NIFTY_FIN_SERVICE.NS, ^CNXFIN, ^NSEI, ^CNXSERVICE, ^CNX100, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RVNL.NS</t>
+          <t>ABSLAMC.NS</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>392.9959411621094</v>
+        <v>743.5189819335938</v>
       </c>
       <c r="C189" t="n">
-        <v>314</v>
+        <v>723.1500244140625</v>
       </c>
       <c r="D189" t="n">
-        <v>-20.10095598659729</v>
+        <v>-2.739534297639556</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ^NSEI, ECAPINSURE.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SULA.NS</t>
+          <t>NTPC.NS</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>303.2000122070312</v>
+        <v>332.08984375</v>
       </c>
       <c r="C190" t="n">
-        <v>241.1999969482422</v>
+        <v>322.9500122070312</v>
       </c>
       <c r="D190" t="n">
-        <v>-20.44855302197487</v>
+        <v>-2.752216520614009</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, ^NSEI, INFRABEES.NS, RKEC.NS, ^CNXINFRA, ^CNXPSE, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PAGEIND.NS</t>
+          <t>KAMATHOTEL.NS</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>49114.86328125</v>
+        <v>245.6499938964844</v>
       </c>
       <c r="C191" t="n">
-        <v>38885</v>
+        <v>238.6100006103516</v>
       </c>
       <c r="D191" t="n">
-        <v>-20.82844702767468</v>
+        <v>-2.86586340771473</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>^HOTEL</t>
+        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLARINDS.NS</t>
+          <t>RAJESHEXPO.NS</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>17473.541015625</v>
+        <v>198.2200012207031</v>
       </c>
       <c r="C192" t="n">
-        <v>13758</v>
+        <v>192.4700012207031</v>
       </c>
       <c r="D192" t="n">
-        <v>-21.26381259701471</v>
+        <v>-2.900817255872078</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>^GOLDFINANCE, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KEC.NS</t>
+          <t>DIXON.NS</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>900.3697509765625</v>
+        <v>14466.5615234375</v>
       </c>
       <c r="C193" t="n">
-        <v>699.2000122070312</v>
+        <v>14018</v>
       </c>
       <c r="D193" t="n">
-        <v>-22.34301391748643</v>
+        <v>-3.100678227585584</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ^NSEI, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, ^NSEI, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ZEAL.NS</t>
+          <t>HUDCO.NS</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>133.8999938964844</v>
+        <v>232.6471252441406</v>
       </c>
       <c r="C194" t="n">
-        <v>103.5</v>
+        <v>225.3899993896484</v>
       </c>
       <c r="D194" t="n">
-        <v>-22.70350655877255</v>
+        <v>-3.119370526017262</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CROMPTON.NS</t>
+          <t>HCLTECH.NS</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>353.9986877441406</v>
+        <v>1696.36181640625</v>
       </c>
       <c r="C195" t="n">
-        <v>267.3500061035156</v>
+        <v>1640.5</v>
       </c>
       <c r="D195" t="n">
-        <v>-24.47711944719185</v>
+        <v>-3.293036654444009</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^ITPRODUCTS, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>TRENT.NS</t>
+          <t>CENTRALBK.NS</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6019.5</v>
+        <v>38.60843276977539</v>
       </c>
       <c r="C196" t="n">
-        <v>4359.10009765625</v>
+        <v>37.27999877929688</v>
       </c>
       <c r="D196" t="n">
-        <v>-27.58368473035551</v>
+        <v>-3.440787142021678</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, ^NSEI</t>
+        </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>360ONE.NS</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1189.649291992188</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1148.099975585938</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-3.492568497785721</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, EMULTIMQ.NS, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>EXIDEIND.NS</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>386.4244689941406</v>
+      </c>
+      <c r="C198" t="n">
+        <v>372.6499938964844</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-3.564597017759016</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>INDIGO.NS</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>5806.18798828125</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5595.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-3.62868010313283</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>^TRAVEL, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, INFRABEES.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, ^CNXINFRA, ^NSEI, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>970.6805419921875</v>
+      </c>
+      <c r="C200" t="n">
+        <v>934.9500122070312</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-3.680977236014671</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>580.0570068359375</v>
+      </c>
+      <c r="C201" t="n">
+        <v>558.2999877929688</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-3.7508415184307</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>^PAINT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, ^NSEI, HDFCBANK.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, MIDQ50ADD.NS, ALPHA.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>INTELLECT.NS</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1141.191040039062</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1097.400024414062</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-3.837308048221361</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, MOMENTUM50.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1166.389038085938</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1120.699951171875</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-3.917139601126482</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>13154.494140625</v>
+      </c>
+      <c r="C204" t="n">
+        <v>12639</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-3.918768256036546</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMNC, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>EDELWEISS.NS</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>113.6977844238281</v>
+      </c>
+      <c r="C205" t="n">
+        <v>109.1600036621094</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-3.991089874542664</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>765.1500244140625</v>
+      </c>
+      <c r="C206" t="n">
+        <v>734.5999755859375</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-3.992687427739371</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>^HOTEL, ^TRAVEL, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, ^CNXINFRA, ^NSEI, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1451.00390625</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1391.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-4.100878432766108</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, NIFTY_FIN_SERVICE.NS, ^CNXFIN, ^NSEI, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>428.3212585449219</v>
+      </c>
+      <c r="C208" t="n">
+        <v>410.7000122070312</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-4.114025625940891</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, ^CNXPSE, NIFTY500_MULTICAP.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ACC.NS</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1920.199951171875</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1840.199951171875</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-4.166232790037149</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>^CEMENT, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, ^NSEI, INFRABEES.NS, HDFCBANK.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>COROMANDEL.NS</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2422.996826171875</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2318.10009765625</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-4.329214441496101</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>^AGRICULTURE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>418.6499938964844</v>
+      </c>
+      <c r="C211" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-4.335362274237164</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO.NS</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>12136.0732421875</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11591</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-4.491347665015012</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>^CEMENT, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, BSLNIFTY.NS, ^CNXCMDT, ^CNXCMDT, ^NSEI, INFRABEES.NS, ^CNXINFRA, HDFCBANK.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, NIFTY100LOWVOL30.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2850.729736328125</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2720.300048828125</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-4.575308765256703</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>^CEMENT, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, BSLNIFTY.NS, ^CNXCMDT, ^CNXCMDT, ^NSEI, INFRABEES.NS, ^CNXINFRA, HDFCBANK.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>UCOBANK.NS</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>31.53000068664551</v>
+      </c>
+      <c r="C214" t="n">
+        <v>29.95000076293945</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-5.011100188067111</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>335.0260925292969</v>
+      </c>
+      <c r="C215" t="n">
+        <v>317.5499877929688</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-5.21634139132011</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>M%26M.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>FLUOROCHEM.NS</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3550.49560546875</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3363.800048828125</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-5.258295668724725</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1627.31640625</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1541.699951171875</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-5.261205181076014</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, M%26M.NS, ^CNXSERVICE, HDFCQUAL.NS, ^CRSLDX, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>JMFINANCIL.NS</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>157.6008453369141</v>
+      </c>
+      <c r="C218" t="n">
+        <v>149.1399993896484</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-5.368528277356824</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>MANKIND.NS</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2332.48046875</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2205.60009765625</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-5.439718479689842</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>647.8499755859375</v>
+      </c>
+      <c r="C220" t="n">
+        <v>611.25</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-5.649452336991329</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>^INSURANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>RAJTV.NS</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>44.56000137329102</v>
+      </c>
+      <c r="C221" t="n">
+        <v>42.02999877929688</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-5.677743527877466</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>JBMA.NS</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>641.6422119140625</v>
+      </c>
+      <c r="C222" t="n">
+        <v>604.75</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-5.749654749803713</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>^CONVENTIONAL2AND3WHEELERS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1496.354736328125</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1409.599975585938</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-5.797740244072958</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>^PLASTICPIPE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>TATATECH.NS</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>715.2000122070312</v>
+      </c>
+      <c r="C224" t="n">
+        <v>671.1500244140625</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-6.159114519172779</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_IND_DIGITAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>TATAPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>408.8500061035156</v>
+      </c>
+      <c r="C225" t="n">
+        <v>383.6499938964844</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-6.16363258672691</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>^SOLARMANUFACTURINGANDMAINTENANCE, ^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, ^NSEI, ^CNXCONSUM, INFRABEES.NS, ^CNXINFRA, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>CYBERMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>17.51000022888184</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-6.339238125883482</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>589.3886108398438</v>
+      </c>
+      <c r="C227" t="n">
+        <v>551.5999755859375</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-6.411497365050827</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMEDIA, ECAPINSURE.NS, NIFTYBEES.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>GODFRYPHLP.NS</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2981.28125</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2788</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-6.483160553872601</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>^SUTTA, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MOMENTUM50.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>SUNDARMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>5028.01513671875</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4690.2001953125</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-6.718654025904661</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>^MOTORFINANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>JIOFIN.NS</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>322.9464111328125</v>
+      </c>
+      <c r="C230" t="n">
+        <v>301</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-6.795682000561692</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CNXSERVICE, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>806.9500122070312</v>
+      </c>
+      <c r="C231" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-6.815787740008012</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>^INSURANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>CYIENTDLM.NS</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>466</v>
+      </c>
+      <c r="C232" t="n">
+        <v>434.1000061035156</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-6.845492252464458</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>^EMS, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, MODEFENCE.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>574.9500122070312</v>
+      </c>
+      <c r="C233" t="n">
+        <v>535.3499755859375</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-6.887561662810147</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXCMDT, ^CNXCMDT, ^NSEI, INFRABEES.NS, ^CNXINFRA, ^CNXMNC, HDFCBANK.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>MHRIL.NS</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>339.3999938964844</v>
+      </c>
+      <c r="C234" t="n">
+        <v>316</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-6.8945180663796</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>^HOTEL, ^TRAVEL, M%26M.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3416.718505859375</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3180</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-6.928241394584404</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>PREMIERENE.NS</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1043.726196289062</v>
+      </c>
+      <c r="C236" t="n">
+        <v>971.0999755859375</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-6.958359477930647</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>UTIAMC.NS</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1216.529907226562</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1131.400024414062</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-6.997763253233831</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>PILANIINVS.NS</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>5588.10009765625</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5185</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-7.213544686239916</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>BSLNIFTY.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>TIMKEN.NS</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3318.849365234375</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3075.89990234375</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-7.320291949239103</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMNC, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>PRUDENT.NS</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2689.28271484375</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2478.60009765625</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-7.83415652153704</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>PETRONET.NS</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>291.8709106445312</v>
+      </c>
+      <c r="C241" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-7.921622128588944</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_OIL_AND_GAS.NS, ^CNXENERGY, ^NSEI, INFRABEES.NS, ^NSEI, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>SWARAJENG.NS</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4100.5</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3773.199951171875</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-7.981954611099257</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>M%26M.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ITCHOTELS.NS</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>225.9799957275391</v>
+      </c>
+      <c r="C243" t="n">
+        <v>207.6699981689453</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-8.102486018572129</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>LICI.NS</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>945.1674194335938</v>
+      </c>
+      <c r="C244" t="n">
+        <v>868.0499877929688</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-8.159129277524062</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>^INSURANCE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, FINIETF.NS, HDFCBANK.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>CENTENKA.NS</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>489.2799072265625</v>
+      </c>
+      <c r="C245" t="n">
+        <v>449.1000061035156</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-8.212048058707927</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>BSLNIFTY.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2911.199951171875</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2670.199951171875</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-8.278373318293983</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI, ECAPINSURE.NS, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1501.72998046875</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1377.199951171875</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-8.292438115805892</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, ^ITPRODUCTS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, ^CNXSERVICE, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>293.0321960449219</v>
+      </c>
+      <c r="C248" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-8.388902028404473</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>^RENEWABLEPOWER, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_CPSE.NS, ^CNXENERGY, INFRABEES.NS, ^CNXINFRA, ^CNXPSE, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>602.0477905273438</v>
+      </c>
+      <c r="C249" t="n">
+        <v>549.4000244140625</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-8.744781883040579</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>^HOUSINGFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, ^CNXCMDT, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>OFSS.NS</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>8853.732421875</v>
+      </c>
+      <c r="C250" t="n">
+        <v>8075.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-8.789879621302015</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^CNXMNC, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>CAMS.NS</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>4244.87939453125</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3859.60009765625</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-9.076330822764055</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>^FINTECH, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>HAL.NS</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>4881.4580078125</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4436.2998046875</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-9.119369713158431</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, MODEFENCE.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXPSE, NIFTY500_MULTICAP.NS, HDFCQUAL.NS, ALPHA.NS, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>HAVELLS.NS</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1566.800048828125</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1420.599975585938</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-9.331125139518385</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>^WIREANDCABLE, ^INDUSTRIALCONGLOMERATE, ^FMEG, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ^NSEI, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, ^NSEI, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>DMART.NS</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>4313.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3909.699951171875</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-9.36130865487713</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, ^CNXSERVICE, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>IGL.NS</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>212.6346130371094</v>
+      </c>
+      <c r="C255" t="n">
+        <v>192.6799926757812</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-9.384464775659836</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_OIL_AND_GAS.NS, ^CNXENERGY, ^NSEI, INFRABEES.NS, NIFTYMIDCAP150.NS, MIDQ50ADD.NS, ALPHA.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>KAYNES.NS</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>5867.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5307</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-9.552620366425224</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^EMS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>85.03736877441406</v>
+      </c>
+      <c r="C257" t="n">
+        <v>76.83000183105469</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-9.651482708892091</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, INFRABEES.NS, ^CNXPSE, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>JKCEMENT.NS</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>6320.78369140625</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5706.5</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-9.718473553230927</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>^CEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, ^NSEI, INFRABEES.NS, HDFCBANK.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>KALYANKJIL.NS</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>543.1605834960938</v>
+      </c>
+      <c r="C259" t="n">
+        <v>490</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-9.787268279653444</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>^GOLDFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ECAPINSURE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>BHARTIHEXA.NS</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1949.360229492188</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1755.199951171875</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-9.960205167974093</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>470.2000122070312</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-10.00956704171651</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, INFRABEES.NS, HDFCBANK.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2204.4599609375</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1983.5</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-10.02331477336206</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>^CEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, ^NSEI, INFRABEES.NS, HDFCBANK.NS, NIFTYMIDCAP150.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>CASTROLIND.NS</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>213.4544525146484</v>
+      </c>
+      <c r="C263" t="n">
+        <v>192</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-10.05106816086496</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_OIL_AND_GAS.NS, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXMNC, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, EMULTIMQ.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>PPLPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>202.6986694335938</v>
+      </c>
+      <c r="C264" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-10.18687810804829</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>RECLTD.NS</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>390.6529846191406</v>
+      </c>
+      <c r="C265" t="n">
+        <v>350.2999877929688</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-10.32962716655377</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CNXPSE, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>189.9246520996094</v>
+      </c>
+      <c r="C266" t="n">
+        <v>170.2700042724609</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-10.34865543249236</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXENERGY, INFRABEES.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, ^CNXSERVICE, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>MAHEPC.NS</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>141.8999938964844</v>
+      </c>
+      <c r="C267" t="n">
+        <v>127.0400009155273</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-10.4721589993847</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>M%26M.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>INDIAMART.NS</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2608.300048828125</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2329.5</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-10.68895616335959</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2353.841796875</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2101.89990234375</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-10.70343363201946</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXFMCG, ^CNXMNC, HDFCBANK.NS, ^NSEI, ^CRSLDX, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>3170.6455078125</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-10.74372732533947</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>WELCORP.NS</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>935.3544311523438</v>
+      </c>
+      <c r="C271" t="n">
+        <v>833.1500244140625</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-10.92681055804342</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>^IRONPIPE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXMETAL, NIFTY500_MULTICAP.NS, MOMENTUM50.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>HSCL.NS</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>505.1499938964844</v>
+      </c>
+      <c r="C272" t="n">
+        <v>449.5499877929688</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-11.00663303480297</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>TIINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>3080.52490234375</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2740.5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-11.03788844833065</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>PSB.NS</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>32.02403259277344</v>
+      </c>
+      <c r="C274" t="n">
+        <v>28.45999908447266</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-11.12924644320104</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>^CNXPSUBANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>CDSL.NS</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1746.262084960938</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1550.5</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-11.2103496174411</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^TRADINGANDBROKERAGE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>VSTIND.NS</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>287.3502502441406</v>
+      </c>
+      <c r="C276" t="n">
+        <v>255</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-11.25812495957632</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>^SUTTA, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>TORNTPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1473.199951171875</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1302.199951171875</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-11.6073856684543</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, ^NSEI, INFRABEES.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>OLAELEC.NS</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>43.09000015258789</v>
+      </c>
+      <c r="C278" t="n">
+        <v>38.02999877929688</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-11.74286691894366</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>^ELECTRIC2AND3WHEELERS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, EVINDIA.NS, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>MEDPLUS.NS</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>911.7999877929688</v>
+      </c>
+      <c r="C279" t="n">
+        <v>799.5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-12.31629625975245</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>SBICARD.NS</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>991.3499755859375</v>
+      </c>
+      <c r="C280" t="n">
+        <v>867.9500122070312</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-12.44766897845241</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2362.300048828125</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2067.800048828125</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-12.46666358687559</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, ^NSEI, INFRABEES.NS, ECAPINSURE.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>TANLA.NS</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>640.181396484375</v>
+      </c>
+      <c r="C282" t="n">
+        <v>559.1500244140625</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-12.65756432712744</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>^FINTECH, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, EMULTIMQ.NS, SMALLCAP.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>UBL.NS</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1948.961059570312</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1701.199951171875</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-12.71247094352216</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>^DAARU, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXFMCG, ^CNXMNC, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>LINDEINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>6626.67529296875</v>
+      </c>
+      <c r="C284" t="n">
+        <v>5771</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-12.91258821564211</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ATGL.NS</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>682.4500122070312</v>
+      </c>
+      <c r="C285" t="n">
+        <v>593.4000244140625</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-13.04857296507076</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_OIL_AND_GAS.NS, ^CNXENERGY, ^NSEI, INFRABEES.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>49.54985809326172</v>
+      </c>
+      <c r="C286" t="n">
+        <v>42.97000122070312</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-13.27926481681163</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>THERMAX.NS</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>3334.346923828125</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2889.60009765625</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-13.33834889805846</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>IRCTC.NS</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>778.590576171875</v>
+      </c>
+      <c r="C288" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-13.36910301222254</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>^TRAVEL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, RKEC.NS, NIFTY_IND_TOURISM.NS, ^NSEI, ^CNXPSE, HDFCBANK.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>NTPCGREEN.NS</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>105.9300003051758</v>
+      </c>
+      <c r="C289" t="n">
+        <v>91.73999786376953</v>
+      </c>
+      <c r="D289" t="n">
+        <v>-13.39564089542717</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>^RENEWABLEPOWER, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>WOCKPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1640.199951171875</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1415.300048828125</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-13.71173692470028</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>NUVAMA.NS</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>8209.8232421875</v>
+      </c>
+      <c r="C291" t="n">
+        <v>7077.5</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-13.7922974561605</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>CINEVISTA.NS</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>19.04999923706055</v>
+      </c>
+      <c r="C292" t="n">
+        <v>16.38999938964844</v>
+      </c>
+      <c r="D292" t="n">
+        <v>-13.96325435140832</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>SHEMAROO.NS</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>126.8399963378906</v>
+      </c>
+      <c r="C293" t="n">
+        <v>108.8099975585938</v>
+      </c>
+      <c r="D293" t="n">
+        <v>-14.21475819919337</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY.NS</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1914.351440429688</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1640.599975585938</v>
+      </c>
+      <c r="D294" t="n">
+        <v>-14.29995867333037</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, ^NSEI, INFRABEES.NS, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>SHREECEM.NS</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>30882.017578125</v>
+      </c>
+      <c r="C295" t="n">
+        <v>26300</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-14.8371704229928</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXCMDT, ^NSEI, INFRABEES.NS, ^CNXINFRA, HDFCBANK.NS, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>PFC.NS</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>413.5854797363281</v>
+      </c>
+      <c r="C296" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-14.90271553261278</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CNXPSE, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>MAXHEALTH.NS</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1277.825439453125</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-15.01186574711027</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>^HOSPITAL, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, ^CNXCONSUM, ^CNXINFRA, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>DEN.NS</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>37.4900016784668</v>
+      </c>
+      <c r="C298" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-15.17738646748162</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>BAGFILMS.NS</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>7.579999923706055</v>
+      </c>
+      <c r="C299" t="n">
+        <v>6.420000076293945</v>
+      </c>
+      <c r="D299" t="n">
+        <v>-15.30342822015433</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>NTCIND.BO</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>197.3000030517578</v>
+      </c>
+      <c r="C300" t="n">
+        <v>166.9499969482422</v>
+      </c>
+      <c r="D300" t="n">
+        <v>-15.38266884646418</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>^SUTTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>CONCOR.NS</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>600.2615356445312</v>
+      </c>
+      <c r="C301" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="D301" t="n">
+        <v>-15.62011391315533</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>^DELIVERY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, RKEC.NS, ^NSEI, ^CNXPSE, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>DLF.NS</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>839.6583862304688</v>
+      </c>
+      <c r="C302" t="n">
+        <v>708</v>
+      </c>
+      <c r="D302" t="n">
+        <v>-15.67999419639349</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, ^NSEI, ^CNXCONSUM, INFRABEES.NS, ECAPINSURE.NS, ^CNXINFRA, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ABB.NS</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>6057.91455078125</v>
+      </c>
+      <c r="C303" t="n">
+        <v>5107</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-15.69706113894619</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, ^SEMICONDUCTOR, ^TRANSFORMERMANUFACTURERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, HDFCQUAL.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>TIPSMUSIC.NS</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>664.0386962890625</v>
+      </c>
+      <c r="C304" t="n">
+        <v>559.2000122070312</v>
+      </c>
+      <c r="D304" t="n">
+        <v>-15.78803835799261</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^CNXMEDIA, NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ENGINERSIN.NS</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>235.6529083251953</v>
+      </c>
+      <c r="C305" t="n">
+        <v>198.3999938964844</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-15.80838305517656</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>NEXTMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>6.96999979019165</v>
+      </c>
+      <c r="C306" t="n">
+        <v>5.860000133514404</v>
+      </c>
+      <c r="D306" t="n">
+        <v>-15.9253901017223</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>933.7000122070312</v>
+      </c>
+      <c r="C307" t="n">
+        <v>783.0999755859375</v>
+      </c>
+      <c r="D307" t="n">
+        <v>-16.12938145573258</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, ^AGRICULTURE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>34460.0546875</v>
+      </c>
+      <c r="C308" t="n">
+        <v>28890</v>
+      </c>
+      <c r="D308" t="n">
+        <v>-16.16380106767641</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, ^CNXMNC, NIFTYMIDCAP150.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>WEALTH.NS</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1240.41845703125</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1031.449951171875</v>
+      </c>
+      <c r="D309" t="n">
+        <v>-16.84661371127199</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>^MUTUALFUNDANDWEALTHMANAGEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>GODREJIND.NS</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1247.5</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1037.300048828125</v>
+      </c>
+      <c r="D310" t="n">
+        <v>-16.84969548471944</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>^CHEMICAL, ^INDUSTRIALCONGLOMERATE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>JUBLFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>708.7144165039062</v>
+      </c>
+      <c r="C311" t="n">
+        <v>589.2000122070312</v>
+      </c>
+      <c r="D311" t="n">
+        <v>-16.86354919749488</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>^TRAVEL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, ^NSEI, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>TVVISION.NS</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>7.039999961853027</v>
+      </c>
+      <c r="C312" t="n">
+        <v>5.849999904632568</v>
+      </c>
+      <c r="D312" t="n">
+        <v>-16.90340999529259</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>GTPL.NS</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>118.2179565429688</v>
+      </c>
+      <c r="C313" t="n">
+        <v>98.11000061035156</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-17.00922306613255</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ABLBL.NS</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>160.0200042724609</v>
+      </c>
+      <c r="C314" t="n">
+        <v>132.4299926757812</v>
+      </c>
+      <c r="D314" t="n">
+        <v>-17.24160158732596</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ADANIENT.NS</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2646.300048828125</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2189.800048828125</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-17.2505003807922</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>^INDUSTRIALCONGLOMERATE, ^DATACENTER, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNX100, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>138.8151245117188</v>
+      </c>
+      <c r="C316" t="n">
+        <v>114.7099990844727</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-17.36491287389303</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, FINIETF.NS, RKEC.NS, ^CNXPSE, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>DISHTV.NS</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>4.960000038146973</v>
+      </c>
+      <c r="C317" t="n">
+        <v>4.079999923706055</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-17.74193765469568</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>E2E.NS</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2617.10009765625</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2142.39990234375</v>
+      </c>
+      <c r="D318" t="n">
+        <v>-18.13840424894786</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>^DATACENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ENIL.NS</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>146.7892456054688</v>
+      </c>
+      <c r="C319" t="n">
+        <v>119.7799987792969</v>
+      </c>
+      <c r="D319" t="n">
+        <v>-18.40001746365377</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>TATAELXSI.NS</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>6345</v>
+      </c>
+      <c r="C320" t="n">
+        <v>5174.5</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-18.44759653270291</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_IND_DIGITAL.NS, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>PIIND.NS</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>4147.12255859375</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3374.60009765625</v>
+      </c>
+      <c r="D321" t="n">
+        <v>-18.62791489816629</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>^AGRICULTURE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>DNAMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>4.960000038146973</v>
+      </c>
+      <c r="C322" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="D322" t="n">
+        <v>-18.74999639488038</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>HATHWAY.NS</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>16.03000068664551</v>
+      </c>
+      <c r="C323" t="n">
+        <v>12.94999980926514</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-19.21397844946008</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>^CNXMEDIA, NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>IREDA.NS</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="C324" t="n">
+        <v>136.8399963378906</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-19.2684387387076</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>TVTODAY.NS</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>168.8714141845703</v>
+      </c>
+      <c r="C325" t="n">
+        <v>136.2599945068359</v>
+      </c>
+      <c r="D325" t="n">
+        <v>-19.31139135371442</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>BRIGADE.NS</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1106.453369140625</v>
+      </c>
+      <c r="C326" t="n">
+        <v>885.5999755859375</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-19.96047910507271</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXREALTY, ^CNXCMDT, INFRABEES.NS, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>KEC.NS</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>900.3697509765625</v>
+      </c>
+      <c r="C327" t="n">
+        <v>720.3499755859375</v>
+      </c>
+      <c r="D327" t="n">
+        <v>-19.99398304922742</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, INFRABEES.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>PNBHOUSING.NS</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1101.487060546875</v>
+      </c>
+      <c r="C328" t="n">
+        <v>878.0499877929688</v>
+      </c>
+      <c r="D328" t="n">
+        <v>-20.28503835923161</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>^HOUSINGFINANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^CNXCMDT, HDFCBANK.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>COCHINSHIP.NS</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2036.671630859375</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1622.400024414062</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-20.34061849580093</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>^SHIPBUILDINGANDSERVICING, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_CPSE.NS, MODEFENCE.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>BAJAJHFL.NS</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>122.0699996948242</v>
+      </c>
+      <c r="C330" t="n">
+        <v>96.97000122070312</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-20.56197144005182</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>^HOUSINGFINANCE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXCMDT, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>EPACK.NS</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="C331" t="n">
+        <v>273.1000061035156</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-20.5642769632754</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>^EMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>RVNL.NS</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>392.9959411621094</v>
+      </c>
+      <c r="C332" t="n">
+        <v>311.6499938964844</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-20.69892809200034</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, RKEC.NS, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>VERTOZ.NS</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>91.69999694824219</v>
+      </c>
+      <c r="C333" t="n">
+        <v>72.27999877929688</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-21.17775225216905</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>IEX.NS</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>189.2799987792969</v>
+      </c>
+      <c r="C334" t="n">
+        <v>148.8899993896484</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-21.33875721160784</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>BDL.NS</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1889.3369140625</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-21.50685306776673</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>^ELECTRONICDEFENCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MODEFENCE.NS, INFRABEES.NS, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, MIDQ50ADD.NS, ALPHA.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>SUZLON.NS</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>67.31999969482422</v>
+      </c>
+      <c r="C336" t="n">
+        <v>52.59000015258789</v>
+      </c>
+      <c r="D336" t="n">
+        <v>-21.88056982918973</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>^TRANSFORMERMANUFACTURERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, EMULTIMQ.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>LODHA.NS</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1417.527465820312</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1103.900024414062</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-22.12496399318486</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, INFRABEES.NS, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>LLOYDSME.NS</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1548.400024414062</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1204.199951171875</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-22.22940246803715</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>RADAAN.NS</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4.260000228881836</v>
+      </c>
+      <c r="C339" t="n">
+        <v>3.299999952316284</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-22.53521654897968</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>FIRSTCRY.NS</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>390.7999877929688</v>
+      </c>
+      <c r="C340" t="n">
+        <v>300.7000122070312</v>
+      </c>
+      <c r="D340" t="n">
+        <v>-23.05526571143833</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>^ONLINEPLATFORM, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>BIRLAMONEY.NS</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>196.9700012207031</v>
+      </c>
+      <c r="C341" t="n">
+        <v>151.2599945068359</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-23.20658294693796</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>BSLNIFTY.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>SUPREMEIND.NS</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>4329.47216796875</v>
+      </c>
+      <c r="C342" t="n">
+        <v>3297.39990234375</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-23.83829311251157</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>^PLASTICPIPE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>PAGEIND.NS</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>49114.86328125</v>
+      </c>
+      <c r="C343" t="n">
+        <v>37240</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-24.17773864756603</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>^TEXTILESANDAPPARELS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>NETWORK18.NS</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>58.88000106811523</v>
+      </c>
+      <c r="C344" t="n">
+        <v>44.54999923706055</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-24.33763853787477</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^CNXMEDIA, NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>AURIONPRO.NS</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1078.199951171875</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-24.75924974376309</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>PGEL.NS</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>760.5647583007812</v>
+      </c>
+      <c r="C346" t="n">
+        <v>572.0999755859375</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-24.77958394179387</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, MOMENTUM50.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ZEAL.NS</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>133.8999938964844</v>
+      </c>
+      <c r="C347" t="n">
+        <v>100</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-25.31739764132614</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>^FISHEXPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>CRISIL.NS</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>5962.98876953125</v>
+      </c>
+      <c r="C348" t="n">
+        <v>4452.5</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-25.33106849453264</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMNC, NIFTYMIDCAP150.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>SAREGAMA.NS</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>496.4100952148438</v>
+      </c>
+      <c r="C349" t="n">
+        <v>370.6499938964844</v>
+      </c>
+      <c r="D349" t="n">
+        <v>-25.33391293421039</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMEDIA, ECAPINSURE.NS, NIFTYBEES.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>NAZARA.NS</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>327.625</v>
+      </c>
+      <c r="C350" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="D350" t="n">
+        <v>-25.58565339892932</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^CNXMEDIA, ^NSEI, NIFTYBEES.NS, ALPHA.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>SULA.NS</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>303.2000122070312</v>
+      </c>
+      <c r="C351" t="n">
+        <v>224.0299987792969</v>
+      </c>
+      <c r="D351" t="n">
+        <v>-26.11148094996627</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>^DAARU</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ABREL.NS</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2395.451416015625</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1767.900024414062</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-26.19762552502</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, BSLNIFTY.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>CREATIVEYE.NS</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>10.27000045776367</v>
+      </c>
+      <c r="C353" t="n">
+        <v>7.570000171661377</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-26.29016714464908</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>SOLARINDS.NS</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>17473.541015625</v>
+      </c>
+      <c r="C354" t="n">
+        <v>12835</v>
+      </c>
+      <c r="D354" t="n">
+        <v>-26.54608480031137</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, MODEFENCE.NS, NIFTY_INDIA_MFG.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>RADIOCITY.NS</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>8.949999809265137</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6.570000171661377</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-26.59217528853976</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>CROMPTON.NS</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>353.9986877441406</v>
+      </c>
+      <c r="C356" t="n">
+        <v>255.8500061035156</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-27.7257190601689</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>^FMEG, ^ELECTRONICAPPLIANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, ^NSEI, NIFTY500_MULTICAP.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>TIPSFILMS.NS</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>572.1500244140625</v>
+      </c>
+      <c r="C357" t="n">
+        <v>413.4500122070312</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-27.73748237965306</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>TECHNOE.NS</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1581.814819335938</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1141.400024414062</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-27.84237380623136</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>MUKTAARTS.NS</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>88.95999908447266</v>
+      </c>
+      <c r="C359" t="n">
+        <v>64.16000366210938</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-27.87769298290376</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>JWL.NS</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>387.6000061035156</v>
+      </c>
+      <c r="C360" t="n">
+        <v>278.0499877929688</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-28.26367816962561</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, EVINDIA.NS, INFRABEES.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>DGCONTENT.NS</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="C361" t="n">
+        <v>32.18999862670898</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-28.78319008104459</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>141.3728485107422</v>
+      </c>
+      <c r="C362" t="n">
+        <v>99.73999786376953</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-29.448972051949</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMEDIA, ECAPINSURE.NS, HDFCBANK.NS, NIFTYBEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>6019.5</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4188.2001953125</v>
+      </c>
+      <c r="D363" t="n">
+        <v>-30.42278934608356</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, ^CNX100, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
           <t>WARDINMOBI.BO</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B364" t="n">
         <v>15.41384410858154</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C364" t="n">
         <v>10.11999988555908</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D364" t="n">
         <v>-34.34473701518203</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>^ELECTRIC2AND3WHEELERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ZEEMEDIA.NS</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>14.51000022888184</v>
+      </c>
+      <c r="C365" t="n">
+        <v>9.130000114440918</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-37.07787752981662</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>RKSWAMY.NS</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>189.1803283691406</v>
+      </c>
+      <c r="C366" t="n">
+        <v>113.1500015258789</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-40.18934077273961</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>COHANCE.NS</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>944.0999755859375</v>
+      </c>
+      <c r="C367" t="n">
+        <v>543.7000122070312</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-42.41075878965103</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, ^CNXMNC, NIFTY500_MULTICAP.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>686.9000244140625</v>
+      </c>
+      <c r="C368" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="D368" t="n">
+        <v>-47.33585861951614</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>NDTV.NS</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>162.4799957275391</v>
+      </c>
+      <c r="C369" t="n">
+        <v>83.94000244140625</v>
+      </c>
+      <c r="D369" t="n">
+        <v>-48.33825415519808</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>SKFINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>4610.43701171875</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1940.5</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-57.91071442755509</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMNC, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
       </c>
     </row>
   </sheetData>
